--- a/Jogos_do_Dia/2023-06-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="203">
   <si>
     <t>League</t>
   </si>
@@ -124,27 +124,27 @@
     <t>Japan J2 League</t>
   </si>
   <si>
-    <t>Tunisia Ligue 1</t>
-  </si>
-  <si>
     <t>Uruguay Primera División</t>
   </si>
   <si>
     <t>Uruguay Segunda División</t>
   </si>
   <si>
+    <t>Chile Primera División</t>
+  </si>
+  <si>
+    <t>Brazil Serie D</t>
+  </si>
+  <si>
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
-    <t>Brazil Serie D</t>
+    <t>Canada Canadian Premier League</t>
   </si>
   <si>
     <t>Ecuador Primera Categoría Serie A</t>
   </si>
   <si>
-    <t>Canada Canadian Premier League</t>
-  </si>
-  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
@@ -175,15 +175,15 @@
     <t>07:00:00</t>
   </si>
   <si>
-    <t>09:30:00</t>
-  </si>
-  <si>
     <t>10:00:00</t>
   </si>
   <si>
     <t>12:30:00</t>
   </si>
   <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
     <t>15:00:00</t>
   </si>
   <si>
@@ -202,9 +202,6 @@
     <t>17:00:00</t>
   </si>
   <si>
-    <t>17:05:00</t>
-  </si>
-  <si>
     <t>17:30:00</t>
   </si>
   <si>
@@ -229,102 +226,108 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
+    <t>23:30:00</t>
+  </si>
+  <si>
     <t>Fujieda MYFC</t>
   </si>
   <si>
     <t>Zweigen Kanazawa</t>
   </si>
   <si>
+    <t>V-Varen Nagasaki</t>
+  </si>
+  <si>
     <t>Oita Trinita</t>
   </si>
   <si>
-    <t>V-Varen Nagasaki</t>
-  </si>
-  <si>
     <t>Tokushima Vortis</t>
   </si>
   <si>
-    <t>Etoile du Sahel</t>
-  </si>
-  <si>
-    <t>Monastir</t>
-  </si>
-  <si>
-    <t>Tataouine</t>
-  </si>
-  <si>
-    <t>ES Tunis</t>
-  </si>
-  <si>
     <t>Fénix</t>
   </si>
   <si>
     <t>Progreso</t>
   </si>
   <si>
+    <t>Huachipato</t>
+  </si>
+  <si>
+    <t>Vitória Futebol Clube (ES)</t>
+  </si>
+  <si>
     <t>Tristán Suárez</t>
   </si>
   <si>
+    <t>Boston River</t>
+  </si>
+  <si>
     <t>Albion</t>
   </si>
   <si>
     <t>Resende</t>
   </si>
   <si>
+    <t>Atlético Ottawa</t>
+  </si>
+  <si>
+    <t>HFX Wanderers FC</t>
+  </si>
+  <si>
     <t>Cumbayá</t>
   </si>
   <si>
-    <t>Vitória Futebol Clube (ES)</t>
-  </si>
-  <si>
-    <t>Atlético Ottawa</t>
-  </si>
-  <si>
     <t>Santo André</t>
   </si>
   <si>
-    <t>Boston River</t>
-  </si>
-  <si>
-    <t>HFX Wanderers FC</t>
-  </si>
-  <si>
     <t>Chacarita Juniors</t>
   </si>
   <si>
     <t>Unión Santa Fe</t>
   </si>
   <si>
+    <t>Tocantinópolis</t>
+  </si>
+  <si>
     <t>Maranhão</t>
   </si>
   <si>
+    <t>Rentistas</t>
+  </si>
+  <si>
+    <t>Inter de Limeira</t>
+  </si>
+  <si>
+    <t>Levante UD</t>
+  </si>
+  <si>
+    <t>Altos</t>
+  </si>
+  <si>
+    <t>América RN</t>
+  </si>
+  <si>
     <t>Nacional AM</t>
   </si>
   <si>
-    <t>Rentistas</t>
-  </si>
-  <si>
-    <t>Levante UD</t>
-  </si>
-  <si>
-    <t>América RN</t>
-  </si>
-  <si>
-    <t>Inter de Limeira</t>
-  </si>
-  <si>
-    <t>Tocantinópolis</t>
-  </si>
-  <si>
-    <t>Altos</t>
+    <t>Pouso Alegre</t>
   </si>
   <si>
     <t>New York City</t>
   </si>
   <si>
-    <t>Pouso Alegre</t>
-  </si>
-  <si>
     <t>Atlético Alagoinhas</t>
   </si>
   <si>
@@ -334,49 +337,52 @@
     <t>Gualaceo SC</t>
   </si>
   <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
+    <t>Humaitá</t>
+  </si>
+  <si>
+    <t>CRAC</t>
+  </si>
+  <si>
     <t>Nacional</t>
   </si>
   <si>
-    <t>Racing Club</t>
-  </si>
-  <si>
-    <t>Humaitá</t>
-  </si>
-  <si>
-    <t>CRAC</t>
-  </si>
-  <si>
     <t>Deportes Santa Cruz</t>
   </si>
   <si>
     <t>Alvarado</t>
   </si>
   <si>
+    <t>Brusque</t>
+  </si>
+  <si>
+    <t>Parnahyba</t>
+  </si>
+  <si>
+    <t>Pacajus</t>
+  </si>
+  <si>
     <t>Deportivo Morón</t>
   </si>
   <si>
-    <t>Brusque</t>
-  </si>
-  <si>
-    <t>Parnahyba</t>
-  </si>
-  <si>
-    <t>Pacajus</t>
+    <t>América de Cali</t>
   </si>
   <si>
     <t>Millonarios</t>
   </si>
   <si>
-    <t>América de Cali</t>
-  </si>
-  <si>
     <t>Hartford Athletic</t>
   </si>
   <si>
+    <t>Miami FC</t>
+  </si>
+  <si>
     <t>Mushuc Runa SC</t>
   </si>
   <si>
-    <t>Miami FC</t>
+    <t>Birmingham Legion</t>
   </si>
   <si>
     <t>DC United</t>
@@ -385,111 +391,135 @@
     <t>New England Revolution</t>
   </si>
   <si>
-    <t>Birmingham Legion</t>
-  </si>
-  <si>
     <t>River Plate</t>
   </si>
   <si>
     <t>San Marcos</t>
   </si>
   <si>
+    <t>Sporting KC</t>
+  </si>
+  <si>
+    <t>Nashville SC</t>
+  </si>
+  <si>
+    <t>Memphis 901</t>
+  </si>
+  <si>
+    <t>Rionegro Águilas</t>
+  </si>
+  <si>
+    <t>Colorado Springs</t>
+  </si>
+  <si>
+    <t>Tulsa Roughnecks</t>
+  </si>
+  <si>
+    <t>Atlético Nacional</t>
+  </si>
+  <si>
+    <t>New Mexico United</t>
+  </si>
+  <si>
+    <t>El Paso Locomotive</t>
+  </si>
+  <si>
+    <t>Oakland Roots</t>
+  </si>
+  <si>
+    <t>Phoenix Rising</t>
+  </si>
+  <si>
+    <t>SJ Earthquakes</t>
+  </si>
+  <si>
     <t>Roasso Kumamoto</t>
   </si>
   <si>
     <t>Mito Hollyhock</t>
   </si>
   <si>
+    <t>Omiya Ardija</t>
+  </si>
+  <si>
     <t>Fagiano Okayama</t>
   </si>
   <si>
-    <t>Omiya Ardija</t>
-  </si>
-  <si>
     <t>Montedio Yamagata</t>
   </si>
   <si>
-    <t>Club Africain</t>
-  </si>
-  <si>
-    <t>Ben Guerdane</t>
-  </si>
-  <si>
-    <t>Olympique Béja</t>
-  </si>
-  <si>
-    <t>CS Sfaxien</t>
-  </si>
-  <si>
     <t>Cerro</t>
   </si>
   <si>
     <t>Oriental</t>
   </si>
   <si>
+    <t>Magallanes</t>
+  </si>
+  <si>
+    <t>Portuguesa RJ</t>
+  </si>
+  <si>
     <t>Atlético Rafaela</t>
   </si>
   <si>
+    <t>La Luz</t>
+  </si>
+  <si>
     <t>Atenas</t>
   </si>
   <si>
     <t>Noroeste</t>
   </si>
   <si>
+    <t>Vancouver FC</t>
+  </si>
+  <si>
+    <t>Cavalry FC</t>
+  </si>
+  <si>
     <t>Libertad</t>
   </si>
   <si>
-    <t>Portuguesa RJ</t>
-  </si>
-  <si>
-    <t>Vancouver FC</t>
-  </si>
-  <si>
     <t>Athletic Club</t>
   </si>
   <si>
-    <t>La Luz</t>
-  </si>
-  <si>
-    <t>Cavalry FC</t>
-  </si>
-  <si>
     <t>Deportivo Madryn</t>
   </si>
   <si>
     <t>Lanús</t>
   </si>
   <si>
+    <t>Fluminense PI</t>
+  </si>
+  <si>
     <t>Caucaia</t>
   </si>
   <si>
+    <t>Potencia</t>
+  </si>
+  <si>
+    <t>Operário MT</t>
+  </si>
+  <si>
+    <t>Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Confiança</t>
+  </si>
+  <si>
     <t>Águia de Marabá</t>
   </si>
   <si>
-    <t>Potencia</t>
-  </si>
-  <si>
-    <t>Deportivo Alavés</t>
-  </si>
-  <si>
-    <t>Confiança</t>
-  </si>
-  <si>
-    <t>Operário MT</t>
-  </si>
-  <si>
-    <t>Fluminense PI</t>
-  </si>
-  <si>
-    <t>Amazonas</t>
+    <t>Remo</t>
   </si>
   <si>
     <t>Columbus Crew</t>
   </si>
   <si>
-    <t>Remo</t>
-  </si>
-  <si>
     <t>ASA</t>
   </si>
   <si>
@@ -499,49 +529,52 @@
     <t>Guayaquil City FC</t>
   </si>
   <si>
+    <t>Vélez Sarsfield</t>
+  </si>
+  <si>
+    <t>Princesa Solimões</t>
+  </si>
+  <si>
+    <t>Maringá</t>
+  </si>
+  <si>
     <t>Deportivo Maldonado</t>
   </si>
   <si>
-    <t>Vélez Sarsfield</t>
-  </si>
-  <si>
-    <t>Princesa Solimões</t>
-  </si>
-  <si>
-    <t>Maringá</t>
-  </si>
-  <si>
     <t>Santiago Wanderers</t>
   </si>
   <si>
     <t>Flandria</t>
   </si>
   <si>
+    <t>Figueirense</t>
+  </si>
+  <si>
+    <t>Ferroviário</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
     <t>Agropecuario</t>
   </si>
   <si>
-    <t>Figueirense</t>
-  </si>
-  <si>
-    <t>Ferroviário</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
+    <t>Boyacá Chicó</t>
   </si>
   <si>
     <t>Independiente Medellín</t>
   </si>
   <si>
-    <t>Boyacá Chicó</t>
-  </si>
-  <si>
     <t>Charleston Battery</t>
   </si>
   <si>
+    <t>Loudoun United</t>
+  </si>
+  <si>
     <t>LDU Quito</t>
   </si>
   <si>
-    <t>Loudoun United</t>
+    <t>Indy Eleven</t>
   </si>
   <si>
     <t>Real Salt Lake</t>
@@ -550,13 +583,46 @@
     <t>Orlando City</t>
   </si>
   <si>
-    <t>Indy Eleven</t>
-  </si>
-  <si>
     <t>Defensa y Justicia</t>
   </si>
   <si>
     <t>Cobreloa</t>
+  </si>
+  <si>
+    <t>Los Angeles FC</t>
+  </si>
+  <si>
+    <t>St. Louis City</t>
+  </si>
+  <si>
+    <t>Detroit City FC</t>
+  </si>
+  <si>
+    <t>Alianza Petrolera</t>
+  </si>
+  <si>
+    <t>Las Vegas Lights</t>
+  </si>
+  <si>
+    <t>Orange County SC</t>
+  </si>
+  <si>
+    <t>Deportivo Pasto</t>
+  </si>
+  <si>
+    <t>Rio Grande Valley</t>
+  </si>
+  <si>
+    <t>Tampa Bay Rowdies</t>
+  </si>
+  <si>
+    <t>Pittsburgh Riverhounds</t>
+  </si>
+  <si>
+    <t>Louisville City</t>
+  </si>
+  <si>
+    <t>Portland Timbers</t>
   </si>
 </sst>
 </file>
@@ -918,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI56"/>
+  <dimension ref="A1:AI65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1045,19 +1111,19 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G2">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H2">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I2">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="J2">
         <v>1.03</v>
@@ -1072,10 +1138,10 @@
         <v>4.33</v>
       </c>
       <c r="N2">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="O2">
-        <v>1.83</v>
+        <v>2.14</v>
       </c>
       <c r="P2">
         <v>1.3</v>
@@ -1123,7 +1189,7 @@
         <v>2.38</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF2">
         <v>1.55</v>
@@ -1135,7 +1201,7 @@
         <v>2.34</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1152,19 +1218,19 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G3">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="H3">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1179,10 +1245,10 @@
         <v>3.8</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="O3">
-        <v>1.67</v>
+        <v>1.99</v>
       </c>
       <c r="P3">
         <v>1.33</v>
@@ -1242,7 +1308,7 @@
         <v>2.55</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1259,94 +1325,94 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G4">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H4">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I4">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K4">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L4">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="M4">
-        <v>2.71</v>
+        <v>3.2</v>
       </c>
       <c r="N4">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="O4">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="P4">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="Q4">
-        <v>2.52</v>
+        <v>2.83</v>
       </c>
       <c r="R4">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="S4">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="T4">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="U4">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="V4">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="W4">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="X4">
-        <v>1.33</v>
+        <v>0.11</v>
       </c>
       <c r="Y4">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="Z4">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AA4">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="AB4">
-        <v>1.76</v>
+        <v>2.05</v>
       </c>
       <c r="AC4">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="AD4">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AE4">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AF4">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AG4">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="AH4">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1366,97 +1432,97 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G5">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H5">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="J5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K5">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="L5">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="M5">
-        <v>3.2</v>
+        <v>2.71</v>
       </c>
       <c r="N5">
-        <v>1.83</v>
+        <v>2.19</v>
       </c>
       <c r="O5">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="P5">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="Q5">
-        <v>2.83</v>
+        <v>2.52</v>
       </c>
       <c r="R5">
+        <v>1.94</v>
+      </c>
+      <c r="S5">
         <v>1.81</v>
       </c>
-      <c r="S5">
-        <v>1.93</v>
-      </c>
       <c r="T5">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="U5">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="W5">
-        <v>1.89</v>
+        <v>2.3</v>
       </c>
       <c r="X5">
-        <v>0.11</v>
+        <v>1.33</v>
       </c>
       <c r="Y5">
+        <v>1.45</v>
+      </c>
+      <c r="Z5">
         <v>1.37</v>
       </c>
-      <c r="Z5">
-        <v>1.38</v>
-      </c>
       <c r="AA5">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AB5">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="AC5">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AE5">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AF5">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="AG5">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="AH5">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1473,19 +1539,19 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G6">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H6">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I6">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="J6">
         <v>1.02</v>
@@ -1500,10 +1566,10 @@
         <v>3.14</v>
       </c>
       <c r="N6">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="O6">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="P6">
         <v>1.41</v>
@@ -1551,7 +1617,7 @@
         <v>1.95</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF6">
         <v>1.51</v>
@@ -1577,129 +1643,129 @@
         <v>53</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W7">
-        <v>2.12</v>
+        <v>0.86</v>
       </c>
       <c r="X7">
-        <v>1.84</v>
+        <v>0.75</v>
       </c>
       <c r="Y7">
-        <v>1.14</v>
+        <v>0.99</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AA7">
-        <v>2.14</v>
+        <v>2.41</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2">
         <v>45094</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1714,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1741,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>1.76</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="Y8">
-        <v>1.32</v>
+        <v>1.85</v>
       </c>
       <c r="Z8">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AA8">
-        <v>2.51</v>
+        <v>3.15</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1782,138 +1848,138 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
         <v>45094</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W9">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="X9">
+        <v>0.43</v>
+      </c>
+      <c r="Y9">
+        <v>1.51</v>
+      </c>
+      <c r="Z9">
         <v>1.4</v>
       </c>
-      <c r="Y9">
-        <v>1.3</v>
-      </c>
-      <c r="Z9">
-        <v>0.99</v>
-      </c>
       <c r="AA9">
-        <v>2.29</v>
+        <v>2.91</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <v>45094</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1928,10 +1994,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1940,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1955,19 +2021,19 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="X10">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="Z10">
-        <v>1.27</v>
+        <v>1.57</v>
       </c>
       <c r="AA10">
-        <v>3.27</v>
+        <v>3.58</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1985,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1996,221 +2062,221 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2">
         <v>45094</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G11">
-        <v>2.12</v>
+        <v>2.7</v>
       </c>
       <c r="H11">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="J11">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K11">
-        <v>9.1</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="M11">
-        <v>2.94</v>
+        <v>2.5</v>
       </c>
       <c r="N11">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="O11">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="P11">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="Q11">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="R11">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="T11">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="U11">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V11">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="W11">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Y11">
-        <v>0.99</v>
+        <v>2.07</v>
       </c>
       <c r="Z11">
-        <v>1.42</v>
+        <v>1.03</v>
       </c>
       <c r="AA11">
-        <v>2.41</v>
+        <v>3.1</v>
       </c>
       <c r="AB11">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="AC11">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD11">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AE11">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="AG11">
-        <v>1.89</v>
+        <v>1.54</v>
       </c>
       <c r="AH11">
-        <v>2.45</v>
+        <v>1.87</v>
       </c>
       <c r="AI11">
-        <v>3.34</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
         <v>45094</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W12">
-        <v>3</v>
+        <v>0.86</v>
       </c>
       <c r="X12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="Y12">
-        <v>1.85</v>
+        <v>2.29</v>
       </c>
       <c r="Z12">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
       <c r="AA12">
-        <v>3.15</v>
+        <v>3.31</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
         <v>45094</v>
@@ -2219,105 +2285,105 @@
         <v>56</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G13">
-        <v>2.78</v>
+        <v>1.76</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I13">
-        <v>2.39</v>
+        <v>4.1</v>
       </c>
       <c r="J13">
+        <v>1.06</v>
+      </c>
+      <c r="K13">
+        <v>8.5</v>
+      </c>
+      <c r="L13">
+        <v>1.37</v>
+      </c>
+      <c r="M13">
+        <v>2.8</v>
+      </c>
+      <c r="N13">
+        <v>2.16</v>
+      </c>
+      <c r="O13">
+        <v>1.5</v>
+      </c>
+      <c r="P13">
+        <v>1.51</v>
+      </c>
+      <c r="Q13">
+        <v>2.29</v>
+      </c>
+      <c r="R13">
+        <v>2.12</v>
+      </c>
+      <c r="S13">
+        <v>1.69</v>
+      </c>
+      <c r="T13">
+        <v>1.19</v>
+      </c>
+      <c r="U13">
+        <v>1.3</v>
+      </c>
+      <c r="V13">
+        <v>1.9</v>
+      </c>
+      <c r="W13">
+        <v>1.83</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1.5</v>
+      </c>
+      <c r="Z13">
         <v>1.08</v>
       </c>
-      <c r="K13">
-        <v>6</v>
-      </c>
-      <c r="L13">
-        <v>1.5</v>
-      </c>
-      <c r="M13">
-        <v>2.5</v>
-      </c>
-      <c r="N13">
-        <v>2.62</v>
-      </c>
-      <c r="O13">
-        <v>1.37</v>
-      </c>
-      <c r="P13">
-        <v>1.57</v>
-      </c>
-      <c r="Q13">
-        <v>2.25</v>
-      </c>
-      <c r="R13">
-        <v>2.2</v>
-      </c>
-      <c r="S13">
-        <v>1.64</v>
-      </c>
-      <c r="T13">
-        <v>1.5</v>
-      </c>
-      <c r="U13">
-        <v>1.33</v>
-      </c>
-      <c r="V13">
-        <v>1.36</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>1.5</v>
-      </c>
-      <c r="Y13">
-        <v>2.07</v>
-      </c>
-      <c r="Z13">
-        <v>1.03</v>
-      </c>
       <c r="AA13">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="AB13">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="AH13">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2">
         <v>45094</v>
@@ -2326,22 +2392,22 @@
         <v>56</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2356,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2368,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2383,19 +2449,19 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Y14">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="Z14">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AA14">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2413,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2424,7 +2490,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v>45094</v>
@@ -2433,76 +2499,76 @@
         <v>56</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G15">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I15">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W15">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="X15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Z15">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AA15">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -2540,76 +2606,76 @@
         <v>56</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G16">
         <v>2.6</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I16">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="N16">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="O16">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W16">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="X16">
-        <v>0.29</v>
+        <v>0.75</v>
       </c>
       <c r="Y16">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="Z16">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AA16">
-        <v>2.26</v>
+        <v>2.79</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -2638,7 +2704,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2">
         <v>45094</v>
@@ -2647,105 +2713,105 @@
         <v>56</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G17">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W17">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="X17">
-        <v>1.33</v>
+        <v>0.29</v>
       </c>
       <c r="Y17">
-        <v>2.01</v>
+        <v>1.11</v>
       </c>
       <c r="Z17">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="AA17">
-        <v>3.58</v>
+        <v>2.26</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2">
         <v>45094</v>
@@ -2754,22 +2820,22 @@
         <v>56</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G18">
-        <v>1.64</v>
+        <v>2.52</v>
       </c>
       <c r="H18">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I18">
-        <v>5.1</v>
+        <v>2.52</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2784,64 +2850,64 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="O18">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="P18">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>2.33</v>
+      </c>
+      <c r="X18">
+        <v>1.75</v>
+      </c>
+      <c r="Y18">
+        <v>1.33</v>
+      </c>
+      <c r="Z18">
+        <v>1.43</v>
+      </c>
+      <c r="AA18">
+        <v>2.76</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>2.1</v>
-      </c>
-      <c r="S18">
-        <v>1.67</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0.8</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>1.55</v>
-      </c>
-      <c r="Z18">
-        <v>1.05</v>
-      </c>
-      <c r="AA18">
-        <v>2.6</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2858,239 +2924,239 @@
         <v>45094</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G19">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
       <c r="I19">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W19">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="X19">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Y19">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="Z19">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="AA19">
-        <v>2.76</v>
+        <v>3.21</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2">
         <v>45094</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G20">
-        <v>2.22</v>
+        <v>2.71</v>
       </c>
       <c r="H20">
-        <v>3.3</v>
+        <v>3.03</v>
       </c>
       <c r="I20">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="J20">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K20">
-        <v>11.25</v>
+        <v>6.3</v>
       </c>
       <c r="L20">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="M20">
-        <v>3.32</v>
+        <v>2.8</v>
       </c>
       <c r="N20">
-        <v>1.77</v>
+        <v>2.24</v>
       </c>
       <c r="O20">
+        <v>1.55</v>
+      </c>
+      <c r="P20">
+        <v>1.46</v>
+      </c>
+      <c r="Q20">
+        <v>2.55</v>
+      </c>
+      <c r="R20">
+        <v>1.97</v>
+      </c>
+      <c r="S20">
         <v>1.81</v>
       </c>
-      <c r="P20">
-        <v>1.4</v>
-      </c>
-      <c r="Q20">
-        <v>2.75</v>
-      </c>
-      <c r="R20">
+      <c r="T20">
+        <v>1.48</v>
+      </c>
+      <c r="U20">
+        <v>1.38</v>
+      </c>
+      <c r="V20">
+        <v>1.47</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1.1</v>
+      </c>
+      <c r="Y20">
+        <v>1.64</v>
+      </c>
+      <c r="Z20">
+        <v>1.33</v>
+      </c>
+      <c r="AA20">
+        <v>2.97</v>
+      </c>
+      <c r="AB20">
         <v>1.74</v>
       </c>
-      <c r="S20">
-        <v>2.04</v>
-      </c>
-      <c r="T20">
-        <v>1.35</v>
-      </c>
-      <c r="U20">
-        <v>1.28</v>
-      </c>
-      <c r="V20">
-        <v>1.62</v>
-      </c>
-      <c r="W20">
-        <v>0.86</v>
-      </c>
-      <c r="X20">
-        <v>1.33</v>
-      </c>
-      <c r="Y20">
-        <v>2.29</v>
-      </c>
-      <c r="Z20">
-        <v>1.02</v>
-      </c>
-      <c r="AA20">
-        <v>3.31</v>
-      </c>
-      <c r="AB20">
-        <v>1.67</v>
-      </c>
       <c r="AC20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD20">
         <v>2.6</v>
       </c>
       <c r="AE20">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AF20">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AG20">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AH20">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="AI20">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2">
         <v>45094</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G21">
-        <v>2.6</v>
+        <v>1.68</v>
       </c>
       <c r="H21">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="I21">
-        <v>2.4</v>
+        <v>5.85</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3105,64 +3171,64 @@
         <v>0</v>
       </c>
       <c r="N21">
+        <v>2.31</v>
+      </c>
+      <c r="O21">
+        <v>1.48</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
+        <v>1.75</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>2.33</v>
+      </c>
+      <c r="X21">
+        <v>0.25</v>
+      </c>
+      <c r="Y21">
+        <v>1.19</v>
+      </c>
+      <c r="Z21">
+        <v>0.83</v>
+      </c>
+      <c r="AA21">
+        <v>2.02</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
         <v>2.1</v>
-      </c>
-      <c r="O21">
-        <v>1.7</v>
-      </c>
-      <c r="P21">
-        <v>1.44</v>
-      </c>
-      <c r="Q21">
-        <v>2.63</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>1.73</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>1.33</v>
-      </c>
-      <c r="X21">
-        <v>0.75</v>
-      </c>
-      <c r="Y21">
-        <v>1.5</v>
-      </c>
-      <c r="Z21">
-        <v>1.29</v>
-      </c>
-      <c r="AA21">
-        <v>2.79</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -3179,79 +3245,79 @@
         <v>45094</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G22">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="H22">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I22">
-        <v>3.8</v>
+        <v>4.35</v>
       </c>
       <c r="J22">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O22">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P22">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="S22">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="T22">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="Y22">
-        <v>1.63</v>
+        <v>2.27</v>
       </c>
       <c r="Z22">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AA22">
-        <v>3.21</v>
+        <v>3.72</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3269,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3280,114 +3346,114 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2">
         <v>45094</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G23">
-        <v>2.71</v>
+        <v>1.41</v>
       </c>
       <c r="H23">
-        <v>3.03</v>
+        <v>4.15</v>
       </c>
       <c r="I23">
-        <v>2.67</v>
+        <v>6.4</v>
       </c>
       <c r="J23">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="M23">
-        <v>2.8</v>
+        <v>3.56</v>
       </c>
       <c r="N23">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="O23">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="P23">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="Q23">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="R23">
         <v>1.97</v>
       </c>
       <c r="S23">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="T23">
-        <v>1.48</v>
+        <v>1.08</v>
       </c>
       <c r="U23">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="V23">
-        <v>1.47</v>
+        <v>2.65</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="X23">
-        <v>1.1</v>
+        <v>0.17</v>
       </c>
       <c r="Y23">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="Z23">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AA23">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
       <c r="AB23">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2">
         <v>45094</v>
@@ -3399,19 +3465,19 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G24">
-        <v>1.5</v>
+        <v>1.97</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="I24">
-        <v>1.5</v>
+        <v>3.85</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3426,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3438,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -3453,19 +3519,19 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X24">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="Y24">
-        <v>2.27</v>
+        <v>1.56</v>
       </c>
       <c r="Z24">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="AA24">
-        <v>3.72</v>
+        <v>2.82</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3483,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -3494,7 +3560,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2">
         <v>45094</v>
@@ -3503,105 +3569,105 @@
         <v>59</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G25">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="H25">
         <v>3</v>
       </c>
       <c r="I25">
+        <v>3.6</v>
+      </c>
+      <c r="J25">
+        <v>1.08</v>
+      </c>
+      <c r="K25">
+        <v>6.2</v>
+      </c>
+      <c r="L25">
         <v>1.5</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W25">
-        <v>3</v>
+        <v>1.76</v>
       </c>
       <c r="X25">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="Y25">
-        <v>1.96</v>
+        <v>1.73</v>
       </c>
       <c r="Z25">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AA25">
-        <v>3.03</v>
+        <v>2.93</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2">
         <v>45094</v>
@@ -3610,76 +3676,76 @@
         <v>59</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W26">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="X26">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="Y26">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="Z26">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="AA26">
-        <v>2.84</v>
+        <v>3.27</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3708,7 +3774,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2">
         <v>45094</v>
@@ -3717,28 +3783,28 @@
         <v>59</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G27">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="H27">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I27">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J27">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K27">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L27">
         <v>1.44</v>
@@ -3747,75 +3813,75 @@
         <v>2.4</v>
       </c>
       <c r="N27">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="O27">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="P27">
+        <v>1.5</v>
+      </c>
+      <c r="Q27">
+        <v>2.5</v>
+      </c>
+      <c r="R27">
+        <v>2.25</v>
+      </c>
+      <c r="S27">
         <v>1.6</v>
       </c>
-      <c r="Q27">
-        <v>2.38</v>
-      </c>
-      <c r="R27">
-        <v>2.16</v>
-      </c>
-      <c r="S27">
-        <v>1.67</v>
-      </c>
       <c r="T27">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="U27">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="V27">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X27">
-        <v>1.69</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="Z27">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="AA27">
-        <v>2.93</v>
+        <v>3.28</v>
       </c>
       <c r="AB27">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>3.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2">
         <v>45094</v>
@@ -3827,73 +3893,73 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G28">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="H28">
-        <v>3.05</v>
+        <v>2.93</v>
       </c>
       <c r="I28">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="J28">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O28">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P28">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="T28">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="Y28">
-        <v>2.25</v>
+        <v>1.96</v>
       </c>
       <c r="Z28">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AA28">
-        <v>3.28</v>
+        <v>3.03</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3911,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -3922,85 +3988,85 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2">
         <v>45094</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G29">
+        <v>2.15</v>
+      </c>
+      <c r="H29">
+        <v>2.8</v>
+      </c>
+      <c r="I29">
+        <v>3.25</v>
+      </c>
+      <c r="J29">
+        <v>1.12</v>
+      </c>
+      <c r="K29">
+        <v>5.5</v>
+      </c>
+      <c r="L29">
         <v>1.5</v>
       </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>1.5</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
       <c r="M29">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W29">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="Z29">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AA29">
-        <v>2.82</v>
+        <v>3.08</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -4029,210 +4095,210 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2">
         <v>45094</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W30">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="X30">
-        <v>0.25</v>
+        <v>0.88</v>
       </c>
       <c r="Y30">
-        <v>1.19</v>
+        <v>1.62</v>
       </c>
       <c r="Z30">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AA30">
-        <v>2.02</v>
+        <v>3.03</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2">
         <v>45094</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F31" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G31">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="H31">
-        <v>2.83</v>
+        <v>3.15</v>
       </c>
       <c r="I31">
-        <v>2.83</v>
+        <v>2.42</v>
       </c>
       <c r="J31">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>2.3</v>
+        <v>2.01</v>
       </c>
       <c r="O31">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>2.08</v>
+      </c>
+      <c r="S31">
+        <v>1.71</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0.67</v>
+      </c>
+      <c r="X31">
         <v>1.5</v>
       </c>
-      <c r="Q31">
-        <v>2.5</v>
-      </c>
-      <c r="R31">
+      <c r="Y31">
+        <v>1.18</v>
+      </c>
+      <c r="Z31">
+        <v>1.49</v>
+      </c>
+      <c r="AA31">
+        <v>2.67</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
         <v>2</v>
-      </c>
-      <c r="S31">
-        <v>1.73</v>
-      </c>
-      <c r="T31">
-        <v>1.4</v>
-      </c>
-      <c r="U31">
-        <v>1.36</v>
-      </c>
-      <c r="V31">
-        <v>1.44</v>
-      </c>
-      <c r="W31">
-        <v>1.67</v>
-      </c>
-      <c r="X31">
-        <v>1.75</v>
-      </c>
-      <c r="Y31">
-        <v>1.87</v>
-      </c>
-      <c r="Z31">
-        <v>1.4</v>
-      </c>
-      <c r="AA31">
-        <v>3.27</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -4243,323 +4309,323 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
         <v>45094</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G32">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="H32">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I32">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="J32">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K32">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L32">
+        <v>1.29</v>
+      </c>
+      <c r="M32">
+        <v>3.25</v>
+      </c>
+      <c r="N32">
+        <v>1.98</v>
+      </c>
+      <c r="O32">
+        <v>1.74</v>
+      </c>
+      <c r="P32">
+        <v>1.4</v>
+      </c>
+      <c r="Q32">
+        <v>2.75</v>
+      </c>
+      <c r="R32">
+        <v>1.95</v>
+      </c>
+      <c r="S32">
+        <v>1.81</v>
+      </c>
+      <c r="T32">
+        <v>1.14</v>
+      </c>
+      <c r="U32">
         <v>1.25</v>
       </c>
-      <c r="M32">
-        <v>3.6</v>
-      </c>
-      <c r="N32">
-        <v>1.57</v>
-      </c>
-      <c r="O32">
+      <c r="V32">
+        <v>2.1</v>
+      </c>
+      <c r="W32">
+        <v>2.38</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>1.83</v>
+      </c>
+      <c r="Z32">
+        <v>1.37</v>
+      </c>
+      <c r="AA32">
+        <v>3.2</v>
+      </c>
+      <c r="AB32">
+        <v>1.58</v>
+      </c>
+      <c r="AC32">
+        <v>9.4</v>
+      </c>
+      <c r="AD32">
+        <v>2.82</v>
+      </c>
+      <c r="AE32">
+        <v>1.2</v>
+      </c>
+      <c r="AF32">
+        <v>1.44</v>
+      </c>
+      <c r="AG32">
+        <v>1.74</v>
+      </c>
+      <c r="AH32">
         <v>2.15</v>
       </c>
-      <c r="P32">
-        <v>1.35</v>
-      </c>
-      <c r="Q32">
-        <v>3.05</v>
-      </c>
-      <c r="R32">
-        <v>1.66</v>
-      </c>
-      <c r="S32">
-        <v>2.14</v>
-      </c>
-      <c r="T32">
-        <v>1.36</v>
-      </c>
-      <c r="U32">
-        <v>1.29</v>
-      </c>
-      <c r="V32">
-        <v>1.68</v>
-      </c>
-      <c r="W32">
-        <v>1.75</v>
-      </c>
-      <c r="X32">
-        <v>0.88</v>
-      </c>
-      <c r="Y32">
-        <v>1.62</v>
-      </c>
-      <c r="Z32">
-        <v>1.41</v>
-      </c>
-      <c r="AA32">
-        <v>3.03</v>
-      </c>
-      <c r="AB32">
-        <v>2.1</v>
-      </c>
-      <c r="AC32">
-        <v>8</v>
-      </c>
-      <c r="AD32">
-        <v>1.95</v>
-      </c>
-      <c r="AE32">
-        <v>1.26</v>
-      </c>
-      <c r="AF32">
-        <v>1.5</v>
-      </c>
-      <c r="AG32">
-        <v>2</v>
-      </c>
-      <c r="AH32">
-        <v>2.5</v>
-      </c>
       <c r="AI32">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2">
         <v>45094</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G33">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="H33">
-        <v>2.82</v>
+        <v>3.45</v>
       </c>
       <c r="I33">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="J33">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="K33">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="L33">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="M33">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="N33">
+        <v>1.76</v>
+      </c>
+      <c r="O33">
+        <v>1.95</v>
+      </c>
+      <c r="P33">
+        <v>1.39</v>
+      </c>
+      <c r="Q33">
+        <v>2.98</v>
+      </c>
+      <c r="R33">
+        <v>1.77</v>
+      </c>
+      <c r="S33">
+        <v>1.97</v>
+      </c>
+      <c r="T33">
+        <v>1.26</v>
+      </c>
+      <c r="U33">
+        <v>1.27</v>
+      </c>
+      <c r="V33">
+        <v>1.88</v>
+      </c>
+      <c r="W33">
+        <v>1.57</v>
+      </c>
+      <c r="X33">
+        <v>0.14</v>
+      </c>
+      <c r="Y33">
+        <v>1.28</v>
+      </c>
+      <c r="Z33">
+        <v>0.83</v>
+      </c>
+      <c r="AA33">
+        <v>2.11</v>
+      </c>
+      <c r="AB33">
+        <v>1.67</v>
+      </c>
+      <c r="AC33">
+        <v>8.4</v>
+      </c>
+      <c r="AD33">
         <v>2.58</v>
       </c>
-      <c r="O33">
-        <v>1.38</v>
-      </c>
-      <c r="P33">
-        <v>1.53</v>
-      </c>
-      <c r="Q33">
-        <v>2.38</v>
-      </c>
-      <c r="R33">
-        <v>2.2</v>
-      </c>
-      <c r="S33">
-        <v>1.62</v>
-      </c>
-      <c r="T33">
-        <v>1.25</v>
-      </c>
-      <c r="U33">
-        <v>1.3</v>
-      </c>
-      <c r="V33">
-        <v>1.55</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33">
-        <v>1.81</v>
-      </c>
-      <c r="Z33">
-        <v>1.27</v>
-      </c>
-      <c r="AA33">
+      <c r="AE33">
+        <v>1.41</v>
+      </c>
+      <c r="AF33">
+        <v>1.76</v>
+      </c>
+      <c r="AG33">
+        <v>2.25</v>
+      </c>
+      <c r="AH33">
         <v>3.08</v>
       </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
       <c r="AI33">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2">
         <v>45094</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F34" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G34">
+        <v>2.1</v>
+      </c>
+      <c r="H34">
+        <v>3.25</v>
+      </c>
+      <c r="I34">
+        <v>3.6</v>
+      </c>
+      <c r="J34">
+        <v>1.09</v>
+      </c>
+      <c r="K34">
+        <v>8</v>
+      </c>
+      <c r="L34">
+        <v>1.47</v>
+      </c>
+      <c r="M34">
+        <v>2.7</v>
+      </c>
+      <c r="N34">
+        <v>2.4</v>
+      </c>
+      <c r="O34">
+        <v>1.55</v>
+      </c>
+      <c r="P34">
         <v>1.5</v>
       </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.5</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
       <c r="Q34">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W34">
-        <v>0.67</v>
+        <v>1.56</v>
       </c>
       <c r="X34">
-        <v>1.5</v>
+        <v>0.63</v>
       </c>
       <c r="Y34">
-        <v>1.18</v>
+        <v>1.71</v>
       </c>
       <c r="Z34">
-        <v>1.49</v>
+        <v>1.03</v>
       </c>
       <c r="AA34">
-        <v>2.67</v>
+        <v>2.74</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4570,79 +4636,79 @@
         <v>45094</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F35" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G35">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H35">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="J35">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="O35">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="P35">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="S35">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="T35">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="X35">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Y35">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="Z35">
-        <v>1.37</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
-        <v>3.2</v>
+        <v>2.57</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -4660,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH35">
         <v>0</v>
@@ -4671,7 +4737,7 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2">
         <v>45094</v>
@@ -4680,22 +4746,22 @@
         <v>63</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F36" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G36">
-        <v>2.5</v>
+        <v>1.53</v>
       </c>
       <c r="H36">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I36">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -4710,10 +4776,10 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1.76</v>
+        <v>2.05</v>
       </c>
       <c r="O36">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -4722,10 +4788,10 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -4737,19 +4803,19 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="X36">
-        <v>0.14</v>
+        <v>0.75</v>
       </c>
       <c r="Y36">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="Z36">
-        <v>0.83</v>
+        <v>1.7</v>
       </c>
       <c r="AA36">
-        <v>2.11</v>
+        <v>3.09</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -4778,31 +4844,31 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>45094</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F37" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="G37">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="H37">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I37">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="J37">
         <v>1.05</v>
@@ -4817,10 +4883,10 @@
         <v>3.5</v>
       </c>
       <c r="N37">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O37">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="P37">
         <v>1.35</v>
@@ -4885,7 +4951,7 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2">
         <v>45094</v>
@@ -4894,100 +4960,100 @@
         <v>64</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G38">
+        <v>2.31</v>
+      </c>
+      <c r="H38">
+        <v>3.2</v>
+      </c>
+      <c r="I38">
+        <v>2.68</v>
+      </c>
+      <c r="J38">
+        <v>1.04</v>
+      </c>
+      <c r="K38">
+        <v>7.7</v>
+      </c>
+      <c r="L38">
+        <v>1.35</v>
+      </c>
+      <c r="M38">
+        <v>2.78</v>
+      </c>
+      <c r="N38">
         <v>2.1</v>
       </c>
-      <c r="H38">
-        <v>3.25</v>
-      </c>
-      <c r="I38">
-        <v>3.6</v>
-      </c>
-      <c r="J38">
-        <v>1.09</v>
-      </c>
-      <c r="K38">
-        <v>8</v>
-      </c>
-      <c r="L38">
-        <v>1.47</v>
-      </c>
-      <c r="M38">
-        <v>2.7</v>
-      </c>
-      <c r="N38">
-        <v>2.4</v>
-      </c>
       <c r="O38">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="P38">
+        <v>1.44</v>
+      </c>
+      <c r="Q38">
+        <v>2.6</v>
+      </c>
+      <c r="R38">
+        <v>1.92</v>
+      </c>
+      <c r="S38">
+        <v>1.84</v>
+      </c>
+      <c r="T38">
+        <v>1.36</v>
+      </c>
+      <c r="U38">
+        <v>1.29</v>
+      </c>
+      <c r="V38">
         <v>1.5</v>
       </c>
-      <c r="Q38">
-        <v>2.37</v>
-      </c>
-      <c r="R38">
-        <v>2</v>
-      </c>
-      <c r="S38">
-        <v>1.68</v>
-      </c>
-      <c r="T38">
-        <v>1.27</v>
-      </c>
-      <c r="U38">
-        <v>1.34</v>
-      </c>
-      <c r="V38">
-        <v>1.68</v>
-      </c>
       <c r="W38">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="X38">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="Y38">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Z38">
-        <v>1.03</v>
+        <v>1.38</v>
       </c>
       <c r="AA38">
-        <v>2.74</v>
+        <v>3.12</v>
       </c>
       <c r="AB38">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AH38">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AI38">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -4998,100 +5064,100 @@
         <v>45094</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="G39">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H39">
         <v>3</v>
       </c>
       <c r="I39">
+        <v>3.3</v>
+      </c>
+      <c r="J39">
+        <v>1.06</v>
+      </c>
+      <c r="K39">
+        <v>6.5</v>
+      </c>
+      <c r="L39">
         <v>1.5</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
       <c r="M39">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W39">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="X39">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y39">
-        <v>1.77</v>
+        <v>1.13</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>1.11</v>
       </c>
       <c r="AA39">
-        <v>2.57</v>
+        <v>2.24</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AI39">
         <v>0</v>
@@ -5099,85 +5165,85 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>45094</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D40">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G40">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I40">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="X40">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="Y40">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="Z40">
-        <v>1.7</v>
+        <v>1.12</v>
       </c>
       <c r="AA40">
-        <v>3.09</v>
+        <v>2.6</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -5206,7 +5272,7 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>45094</v>
@@ -5215,76 +5281,76 @@
         <v>65</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G41">
-        <v>2.42</v>
+        <v>6</v>
       </c>
       <c r="H41">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="I41">
-        <v>2.8</v>
+        <v>1.57</v>
       </c>
       <c r="J41">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="O41">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P41">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="S41">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="T41">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="X41">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="Y41">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="Z41">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AA41">
-        <v>3.12</v>
+        <v>2.83</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -5302,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH41">
         <v>0</v>
@@ -5319,100 +5385,100 @@
         <v>45094</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="G42">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="H42">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="I42">
         <v>3.2</v>
       </c>
       <c r="J42">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="O42">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P42">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S42">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T42">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="X42">
-        <v>0.5600000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="Y42">
-        <v>1.13</v>
+        <v>1.95</v>
       </c>
       <c r="Z42">
-        <v>1.11</v>
+        <v>1.54</v>
       </c>
       <c r="AA42">
-        <v>2.24</v>
+        <v>3.49</v>
       </c>
       <c r="AB42">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AH42">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AI42">
         <v>0</v>
@@ -5420,31 +5486,31 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2">
         <v>45094</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43">
         <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G43">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H43">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I43">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="J43">
         <v>1.07</v>
@@ -5453,16 +5519,16 @@
         <v>6.5</v>
       </c>
       <c r="L43">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M43">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="N43">
-        <v>2.4</v>
+        <v>2.73</v>
       </c>
       <c r="O43">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P43">
         <v>1.55</v>
@@ -5501,25 +5567,25 @@
         <v>2.44</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG43">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AI43">
         <v>0</v>
@@ -5527,7 +5593,7 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2">
         <v>45094</v>
@@ -5536,105 +5602,105 @@
         <v>66</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F44" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="G44">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="H44">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="I44">
-        <v>4.05</v>
+        <v>4.75</v>
       </c>
       <c r="J44">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K44">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="L44">
+        <v>1.32</v>
+      </c>
+      <c r="M44">
+        <v>3.1</v>
+      </c>
+      <c r="N44">
+        <v>2.15</v>
+      </c>
+      <c r="O44">
+        <v>1.7</v>
+      </c>
+      <c r="P44">
         <v>1.44</v>
       </c>
-      <c r="M44">
-        <v>2.62</v>
-      </c>
-      <c r="N44">
-        <v>2.3</v>
-      </c>
-      <c r="O44">
-        <v>1.48</v>
-      </c>
-      <c r="P44">
-        <v>1.51</v>
-      </c>
       <c r="Q44">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="R44">
         <v>2.1</v>
       </c>
       <c r="S44">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="T44">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="U44">
         <v>1.25</v>
       </c>
       <c r="V44">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X44">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="Y44">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="Z44">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AA44">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AI44">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2">
         <v>45094</v>
@@ -5643,183 +5709,183 @@
         <v>66</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F45" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="G45">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I45">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W45">
         <v>2.5</v>
       </c>
       <c r="X45">
-        <v>2.33</v>
+        <v>0.92</v>
       </c>
       <c r="Y45">
+        <v>1.67</v>
+      </c>
+      <c r="Z45">
         <v>1.32</v>
       </c>
-      <c r="Z45">
-        <v>1.51</v>
-      </c>
       <c r="AA45">
-        <v>2.83</v>
+        <v>2.99</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2">
         <v>45094</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F46" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G46">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H46">
+        <v>3.25</v>
+      </c>
+      <c r="I46">
+        <v>2.3</v>
+      </c>
+      <c r="J46">
+        <v>1.01</v>
+      </c>
+      <c r="K46">
+        <v>9.9</v>
+      </c>
+      <c r="L46">
+        <v>1.23</v>
+      </c>
+      <c r="M46">
+        <v>3.56</v>
+      </c>
+      <c r="N46">
+        <v>1.73</v>
+      </c>
+      <c r="O46">
+        <v>1.91</v>
+      </c>
+      <c r="P46">
+        <v>1.36</v>
+      </c>
+      <c r="Q46">
         <v>3</v>
       </c>
-      <c r="I46">
-        <v>1.5</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
       <c r="R46">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W46">
-        <v>2.5</v>
+        <v>0.71</v>
       </c>
       <c r="X46">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="Y46">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="Z46">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="AA46">
-        <v>3.49</v>
+        <v>2.73</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -5837,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH46">
         <v>0</v>
@@ -5848,7 +5914,7 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2">
         <v>45094</v>
@@ -5857,76 +5923,76 @@
         <v>67</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="G47">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="H47">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I47">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="J47">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="P47">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="X47">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="Y47">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="Z47">
         <v>1.32</v>
       </c>
       <c r="AA47">
-        <v>2.99</v>
+        <v>2.68</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -5941,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AG47">
         <v>0</v>
@@ -5955,7 +6021,7 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B48" s="2">
         <v>45094</v>
@@ -5964,100 +6030,100 @@
         <v>67</v>
       </c>
       <c r="D48">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F48" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G48">
+        <v>3.3</v>
+      </c>
+      <c r="H48">
+        <v>3.5</v>
+      </c>
+      <c r="I48">
+        <v>1.95</v>
+      </c>
+      <c r="J48">
+        <v>1.03</v>
+      </c>
+      <c r="K48">
+        <v>13</v>
+      </c>
+      <c r="L48">
+        <v>1.25</v>
+      </c>
+      <c r="M48">
+        <v>3.6</v>
+      </c>
+      <c r="N48">
+        <v>1.8</v>
+      </c>
+      <c r="O48">
+        <v>1.95</v>
+      </c>
+      <c r="P48">
+        <v>1.36</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>1.67</v>
+      </c>
+      <c r="S48">
+        <v>2.1</v>
+      </c>
+      <c r="T48">
+        <v>1.78</v>
+      </c>
+      <c r="U48">
+        <v>1.28</v>
+      </c>
+      <c r="V48">
+        <v>1.28</v>
+      </c>
+      <c r="W48">
+        <v>1.83</v>
+      </c>
+      <c r="X48">
+        <v>1.86</v>
+      </c>
+      <c r="Y48">
+        <v>1.38</v>
+      </c>
+      <c r="Z48">
         <v>1.64</v>
       </c>
-      <c r="H48">
-        <v>3.4</v>
-      </c>
-      <c r="I48">
-        <v>4.9</v>
-      </c>
-      <c r="J48">
-        <v>1.07</v>
-      </c>
-      <c r="K48">
-        <v>6.8</v>
-      </c>
-      <c r="L48">
-        <v>1.32</v>
-      </c>
-      <c r="M48">
-        <v>3.1</v>
-      </c>
-      <c r="N48">
-        <v>1.95</v>
-      </c>
-      <c r="O48">
+      <c r="AA48">
+        <v>3.02</v>
+      </c>
+      <c r="AB48">
+        <v>2.52</v>
+      </c>
+      <c r="AC48">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD48">
         <v>1.68</v>
       </c>
-      <c r="P48">
-        <v>1.44</v>
-      </c>
-      <c r="Q48">
-        <v>2.63</v>
-      </c>
-      <c r="R48">
-        <v>2.1</v>
-      </c>
-      <c r="S48">
-        <v>1.67</v>
-      </c>
-      <c r="T48">
-        <v>1.1</v>
-      </c>
-      <c r="U48">
-        <v>1.25</v>
-      </c>
-      <c r="V48">
-        <v>2</v>
-      </c>
-      <c r="W48">
-        <v>2</v>
-      </c>
-      <c r="X48">
-        <v>0.75</v>
-      </c>
-      <c r="Y48">
-        <v>1.76</v>
-      </c>
-      <c r="Z48">
-        <v>1.06</v>
-      </c>
-      <c r="AA48">
-        <v>2.82</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF48">
-        <v>1.98</v>
+        <v>1.46</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -6074,73 +6140,73 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G49">
-        <v>2.83</v>
+        <v>1.8</v>
       </c>
       <c r="H49">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="I49">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="J49">
         <v>1.01</v>
       </c>
       <c r="K49">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L49">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M49">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="N49">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="O49">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="P49">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q49">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="R49">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="S49">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="T49">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="U49">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V49">
-        <v>1.35</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>0.71</v>
+        <v>1.17</v>
       </c>
       <c r="X49">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="Y49">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="Z49">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AA49">
-        <v>2.73</v>
+        <v>2.66</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -6169,7 +6235,7 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2">
         <v>45094</v>
@@ -6178,105 +6244,105 @@
         <v>68</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F50" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G50">
-        <v>3.45</v>
+        <v>1.67</v>
       </c>
       <c r="H50">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="I50">
-        <v>1.88</v>
+        <v>4.75</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="N50">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="O50">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="P50">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q50">
         <v>3</v>
       </c>
       <c r="R50">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S50">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="W50">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="X50">
-        <v>1.86</v>
+        <v>1.38</v>
       </c>
       <c r="Y50">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="Z50">
+        <v>1.34</v>
+      </c>
+      <c r="AA50">
+        <v>2.87</v>
+      </c>
+      <c r="AB50">
         <v>1.64</v>
       </c>
-      <c r="AA50">
-        <v>3.02</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
       <c r="AC50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B51" s="2">
         <v>45094</v>
@@ -6288,102 +6354,102 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F51" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G51">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="H51">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I51">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N51">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O51">
-        <v>1.89</v>
+        <v>2.01</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="W51">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="X51">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Y51">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="Z51">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AA51">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AC51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG51">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI51">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B52" s="2">
         <v>45094</v>
@@ -6392,105 +6458,105 @@
         <v>69</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F52" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G52">
-        <v>1.87</v>
+        <v>1.45</v>
       </c>
       <c r="H52">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="I52">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="J52">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K52">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L52">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M52">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="N52">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="O52">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="P52">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q52">
         <v>3</v>
       </c>
       <c r="R52">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="T52">
+        <v>1.09</v>
+      </c>
+      <c r="U52">
+        <v>1.2</v>
+      </c>
+      <c r="V52">
+        <v>2.75</v>
+      </c>
+      <c r="W52">
+        <v>2.63</v>
+      </c>
+      <c r="X52">
+        <v>1.75</v>
+      </c>
+      <c r="Y52">
+        <v>1.88</v>
+      </c>
+      <c r="Z52">
+        <v>1.44</v>
+      </c>
+      <c r="AA52">
+        <v>3.32</v>
+      </c>
+      <c r="AB52">
+        <v>1.09</v>
+      </c>
+      <c r="AC52">
+        <v>13</v>
+      </c>
+      <c r="AD52">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE52">
         <v>1.22</v>
       </c>
-      <c r="U52">
-        <v>1.22</v>
-      </c>
-      <c r="V52">
-        <v>2.15</v>
-      </c>
-      <c r="W52">
-        <v>1.5</v>
-      </c>
-      <c r="X52">
-        <v>1.38</v>
-      </c>
-      <c r="Y52">
-        <v>1.53</v>
-      </c>
-      <c r="Z52">
-        <v>1.34</v>
-      </c>
-      <c r="AA52">
-        <v>2.87</v>
-      </c>
-      <c r="AB52">
-        <v>1.64</v>
-      </c>
-      <c r="AC52">
-        <v>8</v>
-      </c>
-      <c r="AD52">
-        <v>2.77</v>
-      </c>
-      <c r="AE52">
-        <v>1.3</v>
-      </c>
       <c r="AF52">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="AG52">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="AH52">
-        <v>2.7</v>
+        <v>2.23</v>
       </c>
       <c r="AI52">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" s="2">
         <v>45094</v>
@@ -6499,212 +6565,212 @@
         <v>69</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F53" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G53">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="H53">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="J53">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K53">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="L53">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="M53">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="N53">
+        <v>2.05</v>
+      </c>
+      <c r="O53">
         <v>1.61</v>
       </c>
-      <c r="O53">
-        <v>2.05</v>
-      </c>
       <c r="P53">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q53">
-        <v>3.03</v>
+        <v>2.59</v>
       </c>
       <c r="R53">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="T53">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="U53">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="V53">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="W53">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y53">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="Z53">
-        <v>1.22</v>
+        <v>1.59</v>
       </c>
       <c r="AA53">
-        <v>2.75</v>
+        <v>3.34</v>
       </c>
       <c r="AB53">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD53">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AE53">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AF53">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AG53">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AH53">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AI53">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B54" s="2">
         <v>45094</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F54" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G54">
-        <v>1.74</v>
+        <v>2.25</v>
       </c>
       <c r="H54">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I54">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="J54">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K54">
-        <v>9.699999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="L54">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="M54">
-        <v>3.48</v>
+        <v>4.2</v>
       </c>
       <c r="N54">
+        <v>1.6</v>
+      </c>
+      <c r="O54">
+        <v>2.2</v>
+      </c>
+      <c r="P54">
+        <v>1.31</v>
+      </c>
+      <c r="Q54">
+        <v>3.1</v>
+      </c>
+      <c r="R54">
+        <v>1.53</v>
+      </c>
+      <c r="S54">
+        <v>2.3</v>
+      </c>
+      <c r="T54">
+        <v>1.37</v>
+      </c>
+      <c r="U54">
+        <v>1.28</v>
+      </c>
+      <c r="V54">
+        <v>1.63</v>
+      </c>
+      <c r="W54">
+        <v>1.63</v>
+      </c>
+      <c r="X54">
+        <v>1.29</v>
+      </c>
+      <c r="Y54">
         <v>1.69</v>
       </c>
-      <c r="O54">
-        <v>1.84</v>
-      </c>
-      <c r="P54">
-        <v>1.35</v>
-      </c>
-      <c r="Q54">
-        <v>2.94</v>
-      </c>
-      <c r="R54">
-        <v>1.72</v>
-      </c>
-      <c r="S54">
-        <v>2.05</v>
-      </c>
-      <c r="T54">
-        <v>1.22</v>
-      </c>
-      <c r="U54">
-        <v>1.2</v>
-      </c>
-      <c r="V54">
-        <v>1.85</v>
-      </c>
-      <c r="W54">
-        <v>1.17</v>
-      </c>
-      <c r="X54">
-        <v>1.67</v>
-      </c>
-      <c r="Y54">
-        <v>1.38</v>
-      </c>
       <c r="Z54">
-        <v>1.28</v>
+        <v>1.55</v>
       </c>
       <c r="AA54">
-        <v>2.66</v>
+        <v>3.24</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B55" s="2">
         <v>45094</v>
@@ -6713,105 +6779,105 @@
         <v>70</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F55" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G55">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="H55">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I55">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J55">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K55">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L55">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M55">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N55">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O55">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="P55">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q55">
-        <v>3</v>
+        <v>3.16</v>
       </c>
       <c r="R55">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="T55">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="U55">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="V55">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="W55">
-        <v>2.63</v>
+        <v>2.22</v>
       </c>
       <c r="X55">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="Y55">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="Z55">
         <v>1.44</v>
       </c>
       <c r="AA55">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="AB55">
-        <v>1.09</v>
+        <v>1.51</v>
       </c>
       <c r="AC55">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AD55">
-        <v>8.800000000000001</v>
+        <v>3.16</v>
       </c>
       <c r="AE55">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AF55">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AG55">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AH55">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="AI55">
-        <v>3</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B56" s="2">
         <v>45094</v>
@@ -6820,64 +6886,64 @@
         <v>70</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F56" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G56">
-        <v>2.61</v>
+        <v>1.6</v>
       </c>
       <c r="H56">
-        <v>2.91</v>
+        <v>3.8</v>
       </c>
       <c r="I56">
-        <v>2.61</v>
+        <v>4.75</v>
       </c>
       <c r="J56">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="K56">
-        <v>7</v>
+        <v>9.9</v>
       </c>
       <c r="L56">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>3.56</v>
       </c>
       <c r="N56">
-        <v>2.01</v>
+        <v>1.73</v>
       </c>
       <c r="O56">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="P56">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="Q56">
-        <v>2.59</v>
+        <v>3.25</v>
       </c>
       <c r="R56">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S56">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="U56">
+        <v>1.2</v>
+      </c>
+      <c r="V56">
+        <v>2.15</v>
+      </c>
+      <c r="W56">
         <v>1.33</v>
-      </c>
-      <c r="V56">
-        <v>1.44</v>
-      </c>
-      <c r="W56">
-        <v>2.14</v>
       </c>
       <c r="X56">
         <v>1</v>
@@ -6886,10 +6952,10 @@
         <v>1.75</v>
       </c>
       <c r="Z56">
-        <v>1.59</v>
+        <v>1.22</v>
       </c>
       <c r="AA56">
-        <v>3.34</v>
+        <v>2.97</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -6914,6 +6980,969 @@
       </c>
       <c r="AI56">
         <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35">
+      <c r="A57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45094</v>
+      </c>
+      <c r="C57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" t="s">
+        <v>194</v>
+      </c>
+      <c r="G57">
+        <v>1.74</v>
+      </c>
+      <c r="H57">
+        <v>3.4</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <v>1.03</v>
+      </c>
+      <c r="K57">
+        <v>11.5</v>
+      </c>
+      <c r="L57">
+        <v>1.27</v>
+      </c>
+      <c r="M57">
+        <v>3.74</v>
+      </c>
+      <c r="N57">
+        <v>1.8</v>
+      </c>
+      <c r="O57">
+        <v>1.86</v>
+      </c>
+      <c r="P57">
+        <v>1.4</v>
+      </c>
+      <c r="Q57">
+        <v>2.75</v>
+      </c>
+      <c r="R57">
+        <v>1.73</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
+        <v>1.32</v>
+      </c>
+      <c r="U57">
+        <v>1.3</v>
+      </c>
+      <c r="V57">
+        <v>1.47</v>
+      </c>
+      <c r="W57">
+        <v>2.25</v>
+      </c>
+      <c r="X57">
+        <v>0.67</v>
+      </c>
+      <c r="Y57">
+        <v>1.76</v>
+      </c>
+      <c r="Z57">
+        <v>1.28</v>
+      </c>
+      <c r="AA57">
+        <v>3.04</v>
+      </c>
+      <c r="AB57">
+        <v>1.29</v>
+      </c>
+      <c r="AC57">
+        <v>10.75</v>
+      </c>
+      <c r="AD57">
+        <v>4.45</v>
+      </c>
+      <c r="AE57">
+        <v>1.26</v>
+      </c>
+      <c r="AF57">
+        <v>1.5</v>
+      </c>
+      <c r="AG57">
+        <v>1.87</v>
+      </c>
+      <c r="AH57">
+        <v>2.39</v>
+      </c>
+      <c r="AI57">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45094</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" t="s">
+        <v>195</v>
+      </c>
+      <c r="G58">
+        <v>1.55</v>
+      </c>
+      <c r="H58">
+        <v>3.8</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>1.01</v>
+      </c>
+      <c r="K58">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L58">
+        <v>1.24</v>
+      </c>
+      <c r="M58">
+        <v>3.48</v>
+      </c>
+      <c r="N58">
+        <v>1.73</v>
+      </c>
+      <c r="O58">
+        <v>1.91</v>
+      </c>
+      <c r="P58">
+        <v>1.33</v>
+      </c>
+      <c r="Q58">
+        <v>3.25</v>
+      </c>
+      <c r="R58">
+        <v>1.83</v>
+      </c>
+      <c r="S58">
+        <v>1.9</v>
+      </c>
+      <c r="T58">
+        <v>1.11</v>
+      </c>
+      <c r="U58">
+        <v>1.18</v>
+      </c>
+      <c r="V58">
+        <v>2.15</v>
+      </c>
+      <c r="W58">
+        <v>1.67</v>
+      </c>
+      <c r="X58">
+        <v>0.89</v>
+      </c>
+      <c r="Y58">
+        <v>1.56</v>
+      </c>
+      <c r="Z58">
+        <v>1.42</v>
+      </c>
+      <c r="AA58">
+        <v>2.98</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45094</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" t="s">
+        <v>196</v>
+      </c>
+      <c r="G59">
+        <v>1.95</v>
+      </c>
+      <c r="H59">
+        <v>3.3</v>
+      </c>
+      <c r="I59">
+        <v>3.3</v>
+      </c>
+      <c r="J59">
+        <v>1.01</v>
+      </c>
+      <c r="K59">
+        <v>9.9</v>
+      </c>
+      <c r="L59">
+        <v>1.23</v>
+      </c>
+      <c r="M59">
+        <v>3.56</v>
+      </c>
+      <c r="N59">
+        <v>1.73</v>
+      </c>
+      <c r="O59">
+        <v>1.91</v>
+      </c>
+      <c r="P59">
+        <v>1.36</v>
+      </c>
+      <c r="Q59">
+        <v>3</v>
+      </c>
+      <c r="R59">
+        <v>1.7</v>
+      </c>
+      <c r="S59">
+        <v>2.05</v>
+      </c>
+      <c r="T59">
+        <v>1.3</v>
+      </c>
+      <c r="U59">
+        <v>1.29</v>
+      </c>
+      <c r="V59">
+        <v>1.73</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>0.33</v>
+      </c>
+      <c r="Y59">
+        <v>1.49</v>
+      </c>
+      <c r="Z59">
+        <v>1.21</v>
+      </c>
+      <c r="AA59">
+        <v>2.7</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>1.95</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45094</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" t="s">
+        <v>197</v>
+      </c>
+      <c r="G60">
+        <v>1.66</v>
+      </c>
+      <c r="H60">
+        <v>3.4</v>
+      </c>
+      <c r="I60">
+        <v>4.45</v>
+      </c>
+      <c r="J60">
+        <v>1.06</v>
+      </c>
+      <c r="K60">
+        <v>9</v>
+      </c>
+      <c r="L60">
+        <v>1.31</v>
+      </c>
+      <c r="M60">
+        <v>3.2</v>
+      </c>
+      <c r="N60">
+        <v>1.88</v>
+      </c>
+      <c r="O60">
+        <v>1.79</v>
+      </c>
+      <c r="P60">
+        <v>1.4</v>
+      </c>
+      <c r="Q60">
+        <v>2.75</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>1.73</v>
+      </c>
+      <c r="T60">
+        <v>1.08</v>
+      </c>
+      <c r="U60">
+        <v>1.25</v>
+      </c>
+      <c r="V60">
+        <v>2.1</v>
+      </c>
+      <c r="W60">
+        <v>1.92</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
+      </c>
+      <c r="Y60">
+        <v>1.51</v>
+      </c>
+      <c r="Z60">
+        <v>1.39</v>
+      </c>
+      <c r="AA60">
+        <v>2.9</v>
+      </c>
+      <c r="AB60">
+        <v>1.47</v>
+      </c>
+      <c r="AC60">
+        <v>9.6</v>
+      </c>
+      <c r="AD60">
+        <v>3.24</v>
+      </c>
+      <c r="AE60">
+        <v>1.26</v>
+      </c>
+      <c r="AF60">
+        <v>1.5</v>
+      </c>
+      <c r="AG60">
+        <v>1.88</v>
+      </c>
+      <c r="AH60">
+        <v>2.41</v>
+      </c>
+      <c r="AI60">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45094</v>
+      </c>
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>134</v>
+      </c>
+      <c r="F61" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61">
+        <v>1.75</v>
+      </c>
+      <c r="H61">
+        <v>3.5</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>1.01</v>
+      </c>
+      <c r="K61">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L61">
+        <v>1.24</v>
+      </c>
+      <c r="M61">
+        <v>3.48</v>
+      </c>
+      <c r="N61">
+        <v>1.97</v>
+      </c>
+      <c r="O61">
+        <v>1.83</v>
+      </c>
+      <c r="P61">
+        <v>1.36</v>
+      </c>
+      <c r="Q61">
+        <v>3</v>
+      </c>
+      <c r="R61">
+        <v>1.72</v>
+      </c>
+      <c r="S61">
+        <v>2.05</v>
+      </c>
+      <c r="T61">
+        <v>1.22</v>
+      </c>
+      <c r="U61">
+        <v>1.2</v>
+      </c>
+      <c r="V61">
+        <v>1.85</v>
+      </c>
+      <c r="W61">
+        <v>1.75</v>
+      </c>
+      <c r="X61">
+        <v>1.4</v>
+      </c>
+      <c r="Y61">
+        <v>1.21</v>
+      </c>
+      <c r="Z61">
+        <v>1.14</v>
+      </c>
+      <c r="AA61">
+        <v>2.35</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45094</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G62">
+        <v>1.75</v>
+      </c>
+      <c r="H62">
+        <v>3.6</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>1.01</v>
+      </c>
+      <c r="K62">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L62">
+        <v>1.24</v>
+      </c>
+      <c r="M62">
+        <v>3.48</v>
+      </c>
+      <c r="N62">
+        <v>1.83</v>
+      </c>
+      <c r="O62">
+        <v>1.97</v>
+      </c>
+      <c r="P62">
+        <v>1.36</v>
+      </c>
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>1.72</v>
+      </c>
+      <c r="S62">
+        <v>2.05</v>
+      </c>
+      <c r="T62">
+        <v>1.22</v>
+      </c>
+      <c r="U62">
+        <v>1.22</v>
+      </c>
+      <c r="V62">
+        <v>1.85</v>
+      </c>
+      <c r="W62">
+        <v>1.71</v>
+      </c>
+      <c r="X62">
+        <v>1.4</v>
+      </c>
+      <c r="Y62">
+        <v>1.57</v>
+      </c>
+      <c r="Z62">
+        <v>1.3</v>
+      </c>
+      <c r="AA62">
+        <v>2.87</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35">
+      <c r="A63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45094</v>
+      </c>
+      <c r="C63" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" t="s">
+        <v>200</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>3.4</v>
+      </c>
+      <c r="I63">
+        <v>3.1</v>
+      </c>
+      <c r="J63">
+        <v>1.01</v>
+      </c>
+      <c r="K63">
+        <v>9.4</v>
+      </c>
+      <c r="L63">
+        <v>1.25</v>
+      </c>
+      <c r="M63">
+        <v>3.42</v>
+      </c>
+      <c r="N63">
+        <v>1.94</v>
+      </c>
+      <c r="O63">
+        <v>1.86</v>
+      </c>
+      <c r="P63">
+        <v>1.36</v>
+      </c>
+      <c r="Q63">
+        <v>3</v>
+      </c>
+      <c r="R63">
+        <v>1.66</v>
+      </c>
+      <c r="S63">
+        <v>2.15</v>
+      </c>
+      <c r="T63">
+        <v>1.33</v>
+      </c>
+      <c r="U63">
+        <v>1.25</v>
+      </c>
+      <c r="V63">
+        <v>1.6</v>
+      </c>
+      <c r="W63">
+        <v>2</v>
+      </c>
+      <c r="X63">
+        <v>1.25</v>
+      </c>
+      <c r="Y63">
+        <v>1.51</v>
+      </c>
+      <c r="Z63">
+        <v>1.19</v>
+      </c>
+      <c r="AA63">
+        <v>2.7</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45094</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" t="s">
+        <v>201</v>
+      </c>
+      <c r="G64">
+        <v>2.75</v>
+      </c>
+      <c r="H64">
+        <v>3.25</v>
+      </c>
+      <c r="I64">
+        <v>2.3</v>
+      </c>
+      <c r="J64">
+        <v>1.01</v>
+      </c>
+      <c r="K64">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L64">
+        <v>1.24</v>
+      </c>
+      <c r="M64">
+        <v>3.48</v>
+      </c>
+      <c r="N64">
+        <v>1.8</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="P64">
+        <v>1.36</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>1.65</v>
+      </c>
+      <c r="S64">
+        <v>2.15</v>
+      </c>
+      <c r="T64">
+        <v>1.47</v>
+      </c>
+      <c r="U64">
+        <v>1.25</v>
+      </c>
+      <c r="V64">
+        <v>1.36</v>
+      </c>
+      <c r="W64">
+        <v>1.5</v>
+      </c>
+      <c r="X64">
+        <v>1.71</v>
+      </c>
+      <c r="Y64">
+        <v>1.64</v>
+      </c>
+      <c r="Z64">
+        <v>1.11</v>
+      </c>
+      <c r="AA64">
+        <v>2.75</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45094</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" t="s">
+        <v>202</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>3.5</v>
+      </c>
+      <c r="I65">
+        <v>3.6</v>
+      </c>
+      <c r="J65">
+        <v>1.04</v>
+      </c>
+      <c r="K65">
+        <v>10.5</v>
+      </c>
+      <c r="L65">
+        <v>1.24</v>
+      </c>
+      <c r="M65">
+        <v>3.7</v>
+      </c>
+      <c r="N65">
+        <v>1.67</v>
+      </c>
+      <c r="O65">
+        <v>2.1</v>
+      </c>
+      <c r="P65">
+        <v>1.36</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>1.7</v>
+      </c>
+      <c r="S65">
+        <v>2.05</v>
+      </c>
+      <c r="T65">
+        <v>1.29</v>
+      </c>
+      <c r="U65">
+        <v>1.25</v>
+      </c>
+      <c r="V65">
+        <v>1.75</v>
+      </c>
+      <c r="W65">
+        <v>2.5</v>
+      </c>
+      <c r="X65">
+        <v>0.67</v>
+      </c>
+      <c r="Y65">
+        <v>1.38</v>
+      </c>
+      <c r="Z65">
+        <v>1.14</v>
+      </c>
+      <c r="AA65">
+        <v>2.52</v>
+      </c>
+      <c r="AB65">
+        <v>1.37</v>
+      </c>
+      <c r="AC65">
+        <v>9</v>
+      </c>
+      <c r="AD65">
+        <v>3.71</v>
+      </c>
+      <c r="AE65">
+        <v>1.2</v>
+      </c>
+      <c r="AF65">
+        <v>1.4</v>
+      </c>
+      <c r="AG65">
+        <v>1.71</v>
+      </c>
+      <c r="AH65">
+        <v>2.2</v>
+      </c>
+      <c r="AI65">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-06-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="199">
   <si>
     <t>League</t>
   </si>
@@ -130,7 +130,10 @@
     <t>Uruguay Segunda División</t>
   </si>
   <si>
-    <t>Chile Primera División</t>
+    <t>Canada Canadian Premier League</t>
+  </si>
+  <si>
+    <t>Ecuador Primera Categoría Serie A</t>
   </si>
   <si>
     <t>Brazil Serie D</t>
@@ -139,21 +142,15 @@
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
-    <t>Canada Canadian Premier League</t>
-  </si>
-  <si>
-    <t>Ecuador Primera Categoría Serie A</t>
-  </si>
-  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
+    <t>Brazil Serie C</t>
+  </si>
+  <si>
     <t>Spain Segunda División</t>
   </si>
   <si>
-    <t>Brazil Serie C</t>
-  </si>
-  <si>
     <t>USA MLS</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>12:30:00</t>
   </si>
   <si>
-    <t>13:30:00</t>
-  </si>
-  <si>
     <t>15:00:00</t>
   </si>
   <si>
@@ -247,12 +241,12 @@
     <t>Zweigen Kanazawa</t>
   </si>
   <si>
+    <t>Oita Trinita</t>
+  </si>
+  <si>
     <t>V-Varen Nagasaki</t>
   </si>
   <si>
-    <t>Oita Trinita</t>
-  </si>
-  <si>
     <t>Tokushima Vortis</t>
   </si>
   <si>
@@ -262,189 +256,186 @@
     <t>Progreso</t>
   </si>
   <si>
-    <t>Huachipato</t>
+    <t>Atlético Ottawa</t>
+  </si>
+  <si>
+    <t>Cumbayá</t>
+  </si>
+  <si>
+    <t>HFX Wanderers FC</t>
+  </si>
+  <si>
+    <t>Santo André</t>
+  </si>
+  <si>
+    <t>Boston River</t>
+  </si>
+  <si>
+    <t>Resende</t>
+  </si>
+  <si>
+    <t>Albion</t>
+  </si>
+  <si>
+    <t>Tristán Suárez</t>
   </si>
   <si>
     <t>Vitória Futebol Clube (ES)</t>
   </si>
   <si>
-    <t>Tristán Suárez</t>
-  </si>
-  <si>
-    <t>Boston River</t>
-  </si>
-  <si>
-    <t>Albion</t>
-  </si>
-  <si>
-    <t>Resende</t>
-  </si>
-  <si>
-    <t>Atlético Ottawa</t>
-  </si>
-  <si>
-    <t>HFX Wanderers FC</t>
-  </si>
-  <si>
-    <t>Cumbayá</t>
-  </si>
-  <si>
-    <t>Santo André</t>
-  </si>
-  <si>
     <t>Chacarita Juniors</t>
   </si>
   <si>
     <t>Unión Santa Fe</t>
   </si>
   <si>
+    <t>Nacional AM</t>
+  </si>
+  <si>
     <t>Tocantinópolis</t>
   </si>
   <si>
     <t>Maranhão</t>
   </si>
   <si>
+    <t>Inter de Limeira</t>
+  </si>
+  <si>
+    <t>América RN</t>
+  </si>
+  <si>
+    <t>Levante UD</t>
+  </si>
+  <si>
     <t>Rentistas</t>
   </si>
   <si>
-    <t>Inter de Limeira</t>
-  </si>
-  <si>
-    <t>Levante UD</t>
-  </si>
-  <si>
     <t>Altos</t>
   </si>
   <si>
-    <t>América RN</t>
-  </si>
-  <si>
-    <t>Nacional AM</t>
-  </si>
-  <si>
     <t>Pouso Alegre</t>
   </si>
   <si>
     <t>New York City</t>
   </si>
   <si>
+    <t>Independiente Rivadavia</t>
+  </si>
+  <si>
     <t>Atlético Alagoinhas</t>
   </si>
   <si>
-    <t>Independiente Rivadavia</t>
-  </si>
-  <si>
     <t>Gualaceo SC</t>
   </si>
   <si>
+    <t>CRAC</t>
+  </si>
+  <si>
+    <t>Humaitá</t>
+  </si>
+  <si>
     <t>Racing Club</t>
   </si>
   <si>
-    <t>Humaitá</t>
-  </si>
-  <si>
-    <t>CRAC</t>
-  </si>
-  <si>
     <t>Nacional</t>
   </si>
   <si>
     <t>Deportes Santa Cruz</t>
   </si>
   <si>
+    <t>Parnahyba</t>
+  </si>
+  <si>
+    <t>Brusque</t>
+  </si>
+  <si>
+    <t>Deportivo Morón</t>
+  </si>
+  <si>
+    <t>Pacajus</t>
+  </si>
+  <si>
     <t>Alvarado</t>
   </si>
   <si>
-    <t>Brusque</t>
-  </si>
-  <si>
-    <t>Parnahyba</t>
-  </si>
-  <si>
-    <t>Pacajus</t>
-  </si>
-  <si>
-    <t>Deportivo Morón</t>
+    <t>Millonarios</t>
   </si>
   <si>
     <t>América de Cali</t>
   </si>
   <si>
-    <t>Millonarios</t>
+    <t>Miami FC</t>
+  </si>
+  <si>
+    <t>Mushuc Runa SC</t>
   </si>
   <si>
     <t>Hartford Athletic</t>
   </si>
   <si>
-    <t>Miami FC</t>
-  </si>
-  <si>
-    <t>Mushuc Runa SC</t>
+    <t>DC United</t>
   </si>
   <si>
     <t>Birmingham Legion</t>
   </si>
   <si>
-    <t>DC United</t>
-  </si>
-  <si>
     <t>New England Revolution</t>
   </si>
   <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
     <t>River Plate</t>
   </si>
   <si>
-    <t>San Marcos</t>
+    <t>Nashville SC</t>
   </si>
   <si>
     <t>Sporting KC</t>
   </si>
   <si>
-    <t>Nashville SC</t>
-  </si>
-  <si>
     <t>Memphis 901</t>
   </si>
   <si>
     <t>Rionegro Águilas</t>
   </si>
   <si>
+    <t>Atlético Nacional</t>
+  </si>
+  <si>
+    <t>New Mexico United</t>
+  </si>
+  <si>
+    <t>Tulsa Roughnecks</t>
+  </si>
+  <si>
     <t>Colorado Springs</t>
   </si>
   <si>
-    <t>Tulsa Roughnecks</t>
-  </si>
-  <si>
-    <t>Atlético Nacional</t>
-  </si>
-  <si>
-    <t>New Mexico United</t>
-  </si>
-  <si>
     <t>El Paso Locomotive</t>
   </si>
   <si>
     <t>Oakland Roots</t>
   </si>
   <si>
+    <t>SJ Earthquakes</t>
+  </si>
+  <si>
     <t>Phoenix Rising</t>
   </si>
   <si>
-    <t>SJ Earthquakes</t>
-  </si>
-  <si>
     <t>Roasso Kumamoto</t>
   </si>
   <si>
     <t>Mito Hollyhock</t>
   </si>
   <si>
+    <t>Fagiano Okayama</t>
+  </si>
+  <si>
     <t>Omiya Ardija</t>
   </si>
   <si>
-    <t>Fagiano Okayama</t>
-  </si>
-  <si>
     <t>Montedio Yamagata</t>
   </si>
   <si>
@@ -454,175 +445,172 @@
     <t>Oriental</t>
   </si>
   <si>
-    <t>Magallanes</t>
+    <t>Vancouver FC</t>
+  </si>
+  <si>
+    <t>Libertad</t>
+  </si>
+  <si>
+    <t>Cavalry FC</t>
+  </si>
+  <si>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>La Luz</t>
+  </si>
+  <si>
+    <t>Noroeste</t>
+  </si>
+  <si>
+    <t>Atenas</t>
+  </si>
+  <si>
+    <t>Atlético Rafaela</t>
   </si>
   <si>
     <t>Portuguesa RJ</t>
   </si>
   <si>
-    <t>Atlético Rafaela</t>
-  </si>
-  <si>
-    <t>La Luz</t>
-  </si>
-  <si>
-    <t>Atenas</t>
-  </si>
-  <si>
-    <t>Noroeste</t>
-  </si>
-  <si>
-    <t>Vancouver FC</t>
-  </si>
-  <si>
-    <t>Cavalry FC</t>
-  </si>
-  <si>
-    <t>Libertad</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
     <t>Deportivo Madryn</t>
   </si>
   <si>
     <t>Lanús</t>
   </si>
   <si>
+    <t>Águia de Marabá</t>
+  </si>
+  <si>
     <t>Fluminense PI</t>
   </si>
   <si>
     <t>Caucaia</t>
   </si>
   <si>
+    <t>Operário MT</t>
+  </si>
+  <si>
+    <t>Confiança</t>
+  </si>
+  <si>
+    <t>Deportivo Alavés</t>
+  </si>
+  <si>
     <t>Potencia</t>
   </si>
   <si>
-    <t>Operário MT</t>
-  </si>
-  <si>
-    <t>Deportivo Alavés</t>
-  </si>
-  <si>
     <t>Amazonas</t>
   </si>
   <si>
-    <t>Confiança</t>
-  </si>
-  <si>
-    <t>Águia de Marabá</t>
-  </si>
-  <si>
     <t>Remo</t>
   </si>
   <si>
     <t>Columbus Crew</t>
   </si>
   <si>
+    <t>Aldosivi</t>
+  </si>
+  <si>
     <t>ASA</t>
   </si>
   <si>
-    <t>Aldosivi</t>
-  </si>
-  <si>
     <t>Guayaquil City FC</t>
   </si>
   <si>
+    <t>Maringá</t>
+  </si>
+  <si>
+    <t>Princesa Solimões</t>
+  </si>
+  <si>
     <t>Vélez Sarsfield</t>
   </si>
   <si>
-    <t>Princesa Solimões</t>
-  </si>
-  <si>
-    <t>Maringá</t>
-  </si>
-  <si>
     <t>Deportivo Maldonado</t>
   </si>
   <si>
     <t>Santiago Wanderers</t>
   </si>
   <si>
+    <t>Ferroviário</t>
+  </si>
+  <si>
+    <t>Figueirense</t>
+  </si>
+  <si>
+    <t>Agropecuario</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
     <t>Flandria</t>
   </si>
   <si>
-    <t>Figueirense</t>
-  </si>
-  <si>
-    <t>Ferroviário</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>Agropecuario</t>
+    <t>Independiente Medellín</t>
   </si>
   <si>
     <t>Boyacá Chicó</t>
   </si>
   <si>
-    <t>Independiente Medellín</t>
+    <t>Loudoun United</t>
+  </si>
+  <si>
+    <t>LDU Quito</t>
   </si>
   <si>
     <t>Charleston Battery</t>
   </si>
   <si>
-    <t>Loudoun United</t>
-  </si>
-  <si>
-    <t>LDU Quito</t>
+    <t>Real Salt Lake</t>
   </si>
   <si>
     <t>Indy Eleven</t>
   </si>
   <si>
-    <t>Real Salt Lake</t>
-  </si>
-  <si>
     <t>Orlando City</t>
   </si>
   <si>
+    <t>Cobreloa</t>
+  </si>
+  <si>
     <t>Defensa y Justicia</t>
   </si>
   <si>
-    <t>Cobreloa</t>
+    <t>St. Louis City</t>
   </si>
   <si>
     <t>Los Angeles FC</t>
   </si>
   <si>
-    <t>St. Louis City</t>
-  </si>
-  <si>
     <t>Detroit City FC</t>
   </si>
   <si>
     <t>Alianza Petrolera</t>
   </si>
   <si>
+    <t>Deportivo Pasto</t>
+  </si>
+  <si>
+    <t>Rio Grande Valley</t>
+  </si>
+  <si>
+    <t>Orange County SC</t>
+  </si>
+  <si>
     <t>Las Vegas Lights</t>
   </si>
   <si>
-    <t>Orange County SC</t>
-  </si>
-  <si>
-    <t>Deportivo Pasto</t>
-  </si>
-  <si>
-    <t>Rio Grande Valley</t>
-  </si>
-  <si>
     <t>Tampa Bay Rowdies</t>
   </si>
   <si>
     <t>Pittsburgh Riverhounds</t>
   </si>
   <si>
+    <t>Portland Timbers</t>
+  </si>
+  <si>
     <t>Louisville City</t>
-  </si>
-  <si>
-    <t>Portland Timbers</t>
   </si>
 </sst>
 </file>
@@ -984,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI65"/>
+  <dimension ref="A1:AI64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,25 +1093,25 @@
         <v>45094</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G2">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H2">
         <v>3.1</v>
       </c>
       <c r="I2">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J2">
         <v>1.03</v>
@@ -1138,10 +1126,10 @@
         <v>4.33</v>
       </c>
       <c r="N2">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="O2">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="P2">
         <v>1.3</v>
@@ -1165,10 +1153,10 @@
         <v>1.45</v>
       </c>
       <c r="W2">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="X2">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="Y2">
         <v>1.5</v>
@@ -1212,25 +1200,25 @@
         <v>45094</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G3">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1245,10 +1233,10 @@
         <v>3.8</v>
       </c>
       <c r="N3">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <v>1.33</v>
@@ -1272,10 +1260,10 @@
         <v>1.63</v>
       </c>
       <c r="W3">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="X3">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="Y3">
         <v>1.4</v>
@@ -1319,103 +1307,103 @@
         <v>45094</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G4">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="H4">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="J4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K4">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="L4">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="M4">
-        <v>3.2</v>
+        <v>2.71</v>
       </c>
       <c r="N4">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="P4">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="Q4">
-        <v>2.83</v>
+        <v>2.52</v>
       </c>
       <c r="R4">
+        <v>1.94</v>
+      </c>
+      <c r="S4">
         <v>1.81</v>
       </c>
-      <c r="S4">
-        <v>1.93</v>
-      </c>
       <c r="T4">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="U4">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="W4">
-        <v>1.89</v>
+        <v>2.36</v>
       </c>
       <c r="X4">
-        <v>0.11</v>
+        <v>1.2</v>
       </c>
       <c r="Y4">
+        <v>1.45</v>
+      </c>
+      <c r="Z4">
         <v>1.37</v>
       </c>
-      <c r="Z4">
-        <v>1.38</v>
-      </c>
       <c r="AA4">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AB4">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="AC4">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AE4">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AF4">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="AG4">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="AH4">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1426,103 +1414,103 @@
         <v>45094</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G5">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="H5">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I5">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="J5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K5">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L5">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="M5">
-        <v>2.71</v>
+        <v>3.2</v>
       </c>
       <c r="N5">
-        <v>2.19</v>
+        <v>1.95</v>
       </c>
       <c r="O5">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="P5">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="Q5">
-        <v>2.52</v>
+        <v>2.83</v>
       </c>
       <c r="R5">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="S5">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="T5">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="U5">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="V5">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>1.33</v>
+        <v>0.1</v>
       </c>
       <c r="Y5">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="Z5">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AA5">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="AB5">
-        <v>1.76</v>
+        <v>2.05</v>
       </c>
       <c r="AC5">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="AD5">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AE5">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AF5">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AG5">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="AH5">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="AI5">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1533,25 +1521,25 @@
         <v>45094</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G6">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="H6">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I6">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J6">
         <v>1.02</v>
@@ -1566,10 +1554,10 @@
         <v>3.14</v>
       </c>
       <c r="N6">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="O6">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P6">
         <v>1.41</v>
@@ -1593,10 +1581,10 @@
         <v>1.3</v>
       </c>
       <c r="W6">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X6">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="Y6">
         <v>1.15</v>
@@ -1640,22 +1628,22 @@
         <v>45094</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G7">
         <v>2.1</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I7">
         <v>3.3</v>
@@ -1676,7 +1664,7 @@
         <v>2.25</v>
       </c>
       <c r="O7">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P7">
         <v>1.45</v>
@@ -1700,10 +1688,10 @@
         <v>1.55</v>
       </c>
       <c r="W7">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="X7">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="Y7">
         <v>0.99</v>
@@ -1747,64 +1735,64 @@
         <v>45094</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G8">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H8">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I8">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N8">
         <v>2</v>
       </c>
       <c r="O8">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -1837,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1854,103 +1842,103 @@
         <v>45094</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G9">
+        <v>1.44</v>
+      </c>
+      <c r="H9">
+        <v>3.9</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1.02</v>
+      </c>
+      <c r="K9">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L9">
+        <v>1.27</v>
+      </c>
+      <c r="M9">
+        <v>3.28</v>
+      </c>
+      <c r="N9">
+        <v>2.04</v>
+      </c>
+      <c r="O9">
+        <v>1.76</v>
+      </c>
+      <c r="P9">
+        <v>1.44</v>
+      </c>
+      <c r="Q9">
+        <v>2.63</v>
+      </c>
+      <c r="R9">
+        <v>2.1</v>
+      </c>
+      <c r="S9">
         <v>1.67</v>
       </c>
-      <c r="H9">
-        <v>3.6</v>
-      </c>
-      <c r="I9">
-        <v>4.33</v>
-      </c>
-      <c r="J9">
+      <c r="T9">
+        <v>1.14</v>
+      </c>
+      <c r="U9">
+        <v>1.27</v>
+      </c>
+      <c r="V9">
+        <v>2.2</v>
+      </c>
+      <c r="W9">
+        <v>0.8</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1.55</v>
+      </c>
+      <c r="Z9">
         <v>1.05</v>
       </c>
-      <c r="K9">
-        <v>11</v>
-      </c>
-      <c r="L9">
-        <v>1.3</v>
-      </c>
-      <c r="M9">
-        <v>3.5</v>
-      </c>
-      <c r="N9">
-        <v>1.85</v>
-      </c>
-      <c r="O9">
-        <v>1.95</v>
-      </c>
-      <c r="P9">
-        <v>1.38</v>
-      </c>
-      <c r="Q9">
-        <v>2.8</v>
-      </c>
-      <c r="R9">
-        <v>1.78</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>1.25</v>
-      </c>
-      <c r="U9">
-        <v>1.25</v>
-      </c>
-      <c r="V9">
-        <v>1.87</v>
-      </c>
-      <c r="W9">
-        <v>2</v>
-      </c>
-      <c r="X9">
-        <v>0.43</v>
-      </c>
-      <c r="Y9">
-        <v>1.51</v>
-      </c>
-      <c r="Z9">
+      <c r="AA9">
+        <v>2.6</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
         <v>1.4</v>
       </c>
-      <c r="AA9">
-        <v>2.91</v>
-      </c>
-      <c r="AB9">
-        <v>1.69</v>
-      </c>
-      <c r="AC9">
-        <v>8</v>
-      </c>
-      <c r="AD9">
-        <v>2.63</v>
-      </c>
-      <c r="AE9">
-        <v>1.27</v>
-      </c>
       <c r="AF9">
-        <v>1.51</v>
+        <v>1.73</v>
       </c>
       <c r="AG9">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="AH9">
-        <v>2.44</v>
+        <v>3.1</v>
       </c>
       <c r="AI9">
-        <v>3.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1961,492 +1949,492 @@
         <v>45094</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G10">
-        <v>2.67</v>
+        <v>2.3</v>
       </c>
       <c r="H10">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>2.42</v>
+        <v>2.99</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N10">
+        <v>2.3</v>
+      </c>
+      <c r="O10">
+        <v>1.53</v>
+      </c>
+      <c r="P10">
+        <v>1.51</v>
+      </c>
+      <c r="Q10">
+        <v>2.4</v>
+      </c>
+      <c r="R10">
+        <v>1.95</v>
+      </c>
+      <c r="S10">
+        <v>1.8</v>
+      </c>
+      <c r="T10">
+        <v>1.36</v>
+      </c>
+      <c r="U10">
+        <v>1.28</v>
+      </c>
+      <c r="V10">
+        <v>1.42</v>
+      </c>
+      <c r="W10">
+        <v>1.57</v>
+      </c>
+      <c r="X10">
+        <v>0.29</v>
+      </c>
+      <c r="Y10">
+        <v>1.11</v>
+      </c>
+      <c r="Z10">
+        <v>1.15</v>
+      </c>
+      <c r="AA10">
+        <v>2.26</v>
+      </c>
+      <c r="AB10">
         <v>1.81</v>
       </c>
-      <c r="O10">
-        <v>1.8</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
+      <c r="AC10">
+        <v>8.1</v>
+      </c>
+      <c r="AD10">
+        <v>2.33</v>
+      </c>
+      <c r="AE10">
+        <v>1.52</v>
+      </c>
+      <c r="AF10">
         <v>1.93</v>
       </c>
-      <c r="S10">
-        <v>1.83</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>1.75</v>
-      </c>
-      <c r="X10">
-        <v>1.33</v>
-      </c>
-      <c r="Y10">
-        <v>2.01</v>
-      </c>
-      <c r="Z10">
-        <v>1.57</v>
-      </c>
-      <c r="AA10">
-        <v>3.58</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
       <c r="AG10">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
         <v>45094</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G11">
-        <v>2.7</v>
+        <v>2.89</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I11">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="J11">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K11">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="L11">
+        <v>1.34</v>
+      </c>
+      <c r="M11">
+        <v>2.88</v>
+      </c>
+      <c r="N11">
+        <v>2.09</v>
+      </c>
+      <c r="O11">
+        <v>1.72</v>
+      </c>
+      <c r="P11">
+        <v>1.44</v>
+      </c>
+      <c r="Q11">
+        <v>2.63</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>1.73</v>
+      </c>
+      <c r="T11">
+        <v>1.52</v>
+      </c>
+      <c r="U11">
+        <v>1.32</v>
+      </c>
+      <c r="V11">
+        <v>1.41</v>
+      </c>
+      <c r="W11">
+        <v>1.33</v>
+      </c>
+      <c r="X11">
+        <v>0.75</v>
+      </c>
+      <c r="Y11">
         <v>1.5</v>
       </c>
-      <c r="M11">
-        <v>2.5</v>
-      </c>
-      <c r="N11">
-        <v>2.23</v>
-      </c>
-      <c r="O11">
-        <v>1.58</v>
-      </c>
-      <c r="P11">
-        <v>1.57</v>
-      </c>
-      <c r="Q11">
-        <v>2.25</v>
-      </c>
-      <c r="R11">
-        <v>2.2</v>
-      </c>
-      <c r="S11">
-        <v>1.64</v>
-      </c>
-      <c r="T11">
-        <v>1.5</v>
-      </c>
-      <c r="U11">
-        <v>1.33</v>
-      </c>
-      <c r="V11">
-        <v>1.36</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>1.5</v>
-      </c>
-      <c r="Y11">
-        <v>2.07</v>
-      </c>
       <c r="Z11">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AA11">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="AB11">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
         <v>45094</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G12">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="H12">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>3.6</v>
+        <v>2.71</v>
       </c>
       <c r="J12">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K12">
-        <v>11.25</v>
+        <v>7.5</v>
       </c>
       <c r="L12">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="M12">
-        <v>3.32</v>
+        <v>2.44</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="O12">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="P12">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="Q12">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="R12">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="S12">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="T12">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="U12">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V12">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="W12">
-        <v>0.86</v>
+        <v>2.33</v>
       </c>
       <c r="X12">
+        <v>1.75</v>
+      </c>
+      <c r="Y12">
         <v>1.33</v>
       </c>
-      <c r="Y12">
-        <v>2.29</v>
-      </c>
       <c r="Z12">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="AA12">
-        <v>3.31</v>
+        <v>2.76</v>
       </c>
       <c r="AB12">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AH12">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2">
         <v>45094</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G13">
-        <v>1.76</v>
+        <v>2.17</v>
       </c>
       <c r="H13">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I13">
-        <v>4.1</v>
+        <v>2.74</v>
       </c>
       <c r="J13">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K13">
-        <v>8.5</v>
+        <v>11.25</v>
       </c>
       <c r="L13">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="M13">
-        <v>2.8</v>
+        <v>3.32</v>
       </c>
       <c r="N13">
-        <v>2.16</v>
+        <v>1.9</v>
       </c>
       <c r="O13">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="P13">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="Q13">
+        <v>2.75</v>
+      </c>
+      <c r="R13">
+        <v>1.74</v>
+      </c>
+      <c r="S13">
+        <v>2.04</v>
+      </c>
+      <c r="T13">
+        <v>1.35</v>
+      </c>
+      <c r="U13">
+        <v>1.28</v>
+      </c>
+      <c r="V13">
+        <v>1.62</v>
+      </c>
+      <c r="W13">
+        <v>0.86</v>
+      </c>
+      <c r="X13">
+        <v>1.33</v>
+      </c>
+      <c r="Y13">
         <v>2.29</v>
       </c>
-      <c r="R13">
-        <v>2.12</v>
-      </c>
-      <c r="S13">
-        <v>1.69</v>
-      </c>
-      <c r="T13">
-        <v>1.19</v>
-      </c>
-      <c r="U13">
-        <v>1.3</v>
-      </c>
-      <c r="V13">
-        <v>1.9</v>
-      </c>
-      <c r="W13">
-        <v>1.83</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>1.5</v>
-      </c>
       <c r="Z13">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="AA13">
-        <v>2.58</v>
+        <v>3.31</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AG13">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2">
         <v>45094</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G14">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="H14">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="I14">
-        <v>5.55</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="N14">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="O14">
-        <v>1.54</v>
+        <v>2.09</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="R14">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S14">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="W14">
         <v>1.33</v>
@@ -2490,85 +2478,85 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2">
         <v>45094</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G15">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="H15">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J15">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K15">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="L15">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="M15">
-        <v>3.28</v>
+        <v>2.8</v>
       </c>
       <c r="N15">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="P15">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="Q15">
-        <v>2.63</v>
+        <v>2.29</v>
       </c>
       <c r="R15">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S15">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="T15">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="U15">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V15">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>0.8</v>
+        <v>1.83</v>
       </c>
       <c r="X15">
         <v>1</v>
       </c>
       <c r="Y15">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Z15">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AA15">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -2586,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2603,599 +2591,599 @@
         <v>45094</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G16">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H16">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I16">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="J16">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K16">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="L16">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="M16">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="N16">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="O16">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="P16">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="Q16">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S16">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="T16">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U16">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="V16">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="W16">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Y16">
-        <v>1.5</v>
+        <v>2.07</v>
       </c>
       <c r="Z16">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AA16">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2">
         <v>45094</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G17">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I17">
+        <v>2.5</v>
+      </c>
+      <c r="J17">
+        <v>1.07</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>1.38</v>
+      </c>
+      <c r="M17">
         <v>2.75</v>
       </c>
-      <c r="J17">
-        <v>1.08</v>
-      </c>
-      <c r="K17">
-        <v>7.25</v>
-      </c>
-      <c r="L17">
-        <v>1.42</v>
-      </c>
-      <c r="M17">
-        <v>2.7</v>
-      </c>
       <c r="N17">
+        <v>2.17</v>
+      </c>
+      <c r="O17">
+        <v>1.58</v>
+      </c>
+      <c r="P17">
+        <v>1.46</v>
+      </c>
+      <c r="Q17">
+        <v>2.51</v>
+      </c>
+      <c r="R17">
+        <v>1.88</v>
+      </c>
+      <c r="S17">
+        <v>1.88</v>
+      </c>
+      <c r="T17">
+        <v>1.49</v>
+      </c>
+      <c r="U17">
+        <v>1.33</v>
+      </c>
+      <c r="V17">
+        <v>1.36</v>
+      </c>
+      <c r="W17">
+        <v>1.75</v>
+      </c>
+      <c r="X17">
+        <v>1.33</v>
+      </c>
+      <c r="Y17">
+        <v>2.01</v>
+      </c>
+      <c r="Z17">
+        <v>1.57</v>
+      </c>
+      <c r="AA17">
+        <v>3.58</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
         <v>2.25</v>
       </c>
-      <c r="O17">
-        <v>1.57</v>
-      </c>
-      <c r="P17">
-        <v>1.51</v>
-      </c>
-      <c r="Q17">
-        <v>2.4</v>
-      </c>
-      <c r="R17">
-        <v>1.95</v>
-      </c>
-      <c r="S17">
-        <v>1.8</v>
-      </c>
-      <c r="T17">
-        <v>1.36</v>
-      </c>
-      <c r="U17">
-        <v>1.28</v>
-      </c>
-      <c r="V17">
-        <v>1.42</v>
-      </c>
-      <c r="W17">
-        <v>1.57</v>
-      </c>
-      <c r="X17">
-        <v>0.29</v>
-      </c>
-      <c r="Y17">
-        <v>1.11</v>
-      </c>
-      <c r="Z17">
-        <v>1.15</v>
-      </c>
-      <c r="AA17">
-        <v>2.26</v>
-      </c>
-      <c r="AB17">
-        <v>1.81</v>
-      </c>
-      <c r="AC17">
-        <v>8.1</v>
-      </c>
-      <c r="AD17">
-        <v>2.33</v>
-      </c>
-      <c r="AE17">
-        <v>1.52</v>
-      </c>
-      <c r="AF17">
-        <v>1.93</v>
-      </c>
-      <c r="AG17">
-        <v>2.6</v>
-      </c>
       <c r="AH17">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>5.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2">
         <v>45094</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G18">
-        <v>2.52</v>
+        <v>1.59</v>
       </c>
       <c r="H18">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="I18">
-        <v>2.52</v>
+        <v>5.2</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="N18">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="O18">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W18">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="X18">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Y18">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="Z18">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="AA18">
-        <v>2.76</v>
+        <v>3.21</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG18">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2">
         <v>45094</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G19">
-        <v>1.91</v>
+        <v>2.71</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="I19">
-        <v>3.9</v>
+        <v>2.67</v>
       </c>
       <c r="J19">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K19">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="L19">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="M19">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="N19">
-        <v>2.29</v>
+        <v>2.24</v>
       </c>
       <c r="O19">
         <v>1.55</v>
       </c>
       <c r="P19">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="Q19">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="R19">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="S19">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="T19">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="U19">
+        <v>1.38</v>
+      </c>
+      <c r="V19">
+        <v>1.47</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1.1</v>
+      </c>
+      <c r="Y19">
+        <v>1.64</v>
+      </c>
+      <c r="Z19">
         <v>1.33</v>
       </c>
-      <c r="V19">
-        <v>1.73</v>
-      </c>
-      <c r="W19">
-        <v>2.25</v>
-      </c>
-      <c r="X19">
-        <v>1.25</v>
-      </c>
-      <c r="Y19">
-        <v>1.63</v>
-      </c>
-      <c r="Z19">
-        <v>1.58</v>
-      </c>
       <c r="AA19">
-        <v>3.21</v>
+        <v>2.97</v>
       </c>
       <c r="AB19">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
       <c r="AC19">
-        <v>9.9</v>
+        <v>7</v>
       </c>
       <c r="AD19">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="AE19">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AF19">
         <v>1.53</v>
       </c>
       <c r="AG19">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="AH19">
-        <v>2.34</v>
+        <v>2.55</v>
       </c>
       <c r="AI19">
-        <v>3.18</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2">
         <v>45094</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G20">
-        <v>2.71</v>
+        <v>1.38</v>
       </c>
       <c r="H20">
+        <v>4.3</v>
+      </c>
+      <c r="I20">
+        <v>6.1</v>
+      </c>
+      <c r="J20">
+        <v>1.05</v>
+      </c>
+      <c r="K20">
+        <v>9.25</v>
+      </c>
+      <c r="L20">
+        <v>1.32</v>
+      </c>
+      <c r="M20">
+        <v>3.05</v>
+      </c>
+      <c r="N20">
+        <v>1.98</v>
+      </c>
+      <c r="O20">
+        <v>1.7</v>
+      </c>
+      <c r="P20">
+        <v>1.4</v>
+      </c>
+      <c r="Q20">
+        <v>2.64</v>
+      </c>
+      <c r="R20">
+        <v>1.73</v>
+      </c>
+      <c r="S20">
+        <v>2.06</v>
+      </c>
+      <c r="T20">
+        <v>1.22</v>
+      </c>
+      <c r="U20">
+        <v>1.27</v>
+      </c>
+      <c r="V20">
+        <v>1.79</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>1.33</v>
+      </c>
+      <c r="Y20">
+        <v>1.96</v>
+      </c>
+      <c r="Z20">
+        <v>1.07</v>
+      </c>
+      <c r="AA20">
         <v>3.03</v>
       </c>
-      <c r="I20">
-        <v>2.67</v>
-      </c>
-      <c r="J20">
-        <v>1.07</v>
-      </c>
-      <c r="K20">
-        <v>6.3</v>
-      </c>
-      <c r="L20">
-        <v>1.37</v>
-      </c>
-      <c r="M20">
-        <v>2.8</v>
-      </c>
-      <c r="N20">
-        <v>2.24</v>
-      </c>
-      <c r="O20">
-        <v>1.55</v>
-      </c>
-      <c r="P20">
-        <v>1.46</v>
-      </c>
-      <c r="Q20">
-        <v>2.55</v>
-      </c>
-      <c r="R20">
-        <v>1.97</v>
-      </c>
-      <c r="S20">
-        <v>1.81</v>
-      </c>
-      <c r="T20">
-        <v>1.48</v>
-      </c>
-      <c r="U20">
-        <v>1.38</v>
-      </c>
-      <c r="V20">
-        <v>1.47</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>1.1</v>
-      </c>
-      <c r="Y20">
-        <v>1.64</v>
-      </c>
-      <c r="Z20">
-        <v>1.33</v>
-      </c>
-      <c r="AA20">
-        <v>2.97</v>
-      </c>
       <c r="AB20">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="AH20">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2">
         <v>45094</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G21">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="H21">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="I21">
-        <v>5.85</v>
+        <v>3.95</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="N21">
-        <v>2.31</v>
+        <v>2.1</v>
       </c>
       <c r="O21">
+        <v>1.62</v>
+      </c>
+      <c r="P21">
         <v>1.48</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W21">
         <v>2.33</v>
@@ -3239,70 +3227,70 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2">
         <v>45094</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G22">
-        <v>1.82</v>
+        <v>1.56</v>
       </c>
       <c r="H22">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="I22">
-        <v>4.35</v>
+        <v>4.8</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N22">
-        <v>2.3</v>
+        <v>1.99</v>
       </c>
       <c r="O22">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="R22">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="S22">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="W22">
         <v>2</v>
@@ -3346,85 +3334,85 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2">
         <v>45094</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G23">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="H23">
-        <v>4.15</v>
+        <v>3.25</v>
       </c>
       <c r="I23">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="L23">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="M23">
-        <v>3.56</v>
+        <v>2.6</v>
       </c>
       <c r="N23">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="O23">
-        <v>1.87</v>
+        <v>1.52</v>
       </c>
       <c r="P23">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="Q23">
-        <v>2.53</v>
+        <v>2.17</v>
       </c>
       <c r="R23">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="S23">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="T23">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="U23">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="V23">
-        <v>2.65</v>
+        <v>1.99</v>
       </c>
       <c r="W23">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="X23">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="Y23">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="Z23">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AA23">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3442,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -3453,94 +3441,94 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2">
         <v>45094</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G24">
-        <v>1.97</v>
+        <v>1.72</v>
       </c>
       <c r="H24">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="I24">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N24">
-        <v>2.31</v>
+        <v>2.38</v>
       </c>
       <c r="O24">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R24">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="S24">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="X24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>1.56</v>
+        <v>2.25</v>
       </c>
       <c r="Z24">
-        <v>1.26</v>
+        <v>1.03</v>
       </c>
       <c r="AA24">
-        <v>2.82</v>
+        <v>3.28</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3549,13 +3537,13 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>2.1</v>
+        <v>1.63</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3566,25 +3554,25 @@
         <v>45094</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G25">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I25">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J25">
         <v>1.08</v>
@@ -3599,10 +3587,10 @@
         <v>2.45</v>
       </c>
       <c r="N25">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O25">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P25">
         <v>1.6</v>
@@ -3667,85 +3655,85 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2">
         <v>45094</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G26">
-        <v>2.4</v>
+        <v>1.42</v>
       </c>
       <c r="H26">
-        <v>2.9</v>
+        <v>4.15</v>
       </c>
       <c r="I26">
-        <v>2.7</v>
+        <v>6.07</v>
       </c>
       <c r="J26">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="K26">
-        <v>6.5</v>
+        <v>14</v>
       </c>
       <c r="L26">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="M26">
-        <v>2.62</v>
+        <v>3.56</v>
       </c>
       <c r="N26">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="O26">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="P26">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q26">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S26">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="T26">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="U26">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="V26">
-        <v>1.44</v>
+        <v>2.65</v>
       </c>
       <c r="W26">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="X26">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="Y26">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="Z26">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="AA26">
-        <v>3.27</v>
+        <v>2.84</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3774,49 +3762,49 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2">
         <v>45094</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G27">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H27">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I27">
-        <v>4.5</v>
+        <v>2.71</v>
       </c>
       <c r="J27">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L27">
         <v>1.44</v>
       </c>
       <c r="M27">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="N27">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="O27">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="P27">
         <v>1.5</v>
@@ -3825,55 +3813,55 @@
         <v>2.5</v>
       </c>
       <c r="R27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="T27">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="U27">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="W27">
+        <v>1.67</v>
+      </c>
+      <c r="X27">
         <v>1.75</v>
       </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
       <c r="Y27">
-        <v>2.25</v>
+        <v>1.87</v>
       </c>
       <c r="Z27">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="AA27">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE27">
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -3881,109 +3869,109 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2">
         <v>45094</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G28">
-        <v>1.78</v>
+        <v>2.24</v>
       </c>
       <c r="H28">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="I28">
-        <v>4.85</v>
+        <v>2.99</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N28">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="O28">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="S28">
+        <v>1.62</v>
+      </c>
+      <c r="T28">
+        <v>1.25</v>
+      </c>
+      <c r="U28">
+        <v>1.3</v>
+      </c>
+      <c r="V28">
+        <v>1.55</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1.81</v>
+      </c>
+      <c r="Z28">
+        <v>1.27</v>
+      </c>
+      <c r="AA28">
+        <v>3.08</v>
+      </c>
+      <c r="AB28">
+        <v>1.64</v>
+      </c>
+      <c r="AC28">
+        <v>8.5</v>
+      </c>
+      <c r="AD28">
+        <v>2.56</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>1.55</v>
+      </c>
+      <c r="AH28">
         <v>1.91</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>3</v>
-      </c>
-      <c r="X28">
-        <v>1.33</v>
-      </c>
-      <c r="Y28">
-        <v>1.96</v>
-      </c>
-      <c r="Z28">
-        <v>1.07</v>
-      </c>
-      <c r="AA28">
-        <v>3.03</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>2.1</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
       <c r="AI28">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3994,278 +3982,278 @@
         <v>45094</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G29">
         <v>2.15</v>
       </c>
       <c r="H29">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="I29">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="K29">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="L29">
+        <v>1.25</v>
+      </c>
+      <c r="M29">
+        <v>3.6</v>
+      </c>
+      <c r="N29">
+        <v>1.77</v>
+      </c>
+      <c r="O29">
+        <v>1.96</v>
+      </c>
+      <c r="P29">
+        <v>1.35</v>
+      </c>
+      <c r="Q29">
+        <v>3.05</v>
+      </c>
+      <c r="R29">
+        <v>1.66</v>
+      </c>
+      <c r="S29">
+        <v>2.14</v>
+      </c>
+      <c r="T29">
+        <v>1.36</v>
+      </c>
+      <c r="U29">
+        <v>1.29</v>
+      </c>
+      <c r="V29">
+        <v>1.68</v>
+      </c>
+      <c r="W29">
+        <v>1.75</v>
+      </c>
+      <c r="X29">
+        <v>0.88</v>
+      </c>
+      <c r="Y29">
+        <v>1.62</v>
+      </c>
+      <c r="Z29">
+        <v>1.41</v>
+      </c>
+      <c r="AA29">
+        <v>3.03</v>
+      </c>
+      <c r="AB29">
+        <v>2.1</v>
+      </c>
+      <c r="AC29">
+        <v>8</v>
+      </c>
+      <c r="AD29">
+        <v>1.95</v>
+      </c>
+      <c r="AE29">
+        <v>1.26</v>
+      </c>
+      <c r="AF29">
         <v>1.5</v>
       </c>
-      <c r="M29">
-        <v>2.3</v>
-      </c>
-      <c r="N29">
-        <v>2.58</v>
-      </c>
-      <c r="O29">
-        <v>1.38</v>
-      </c>
-      <c r="P29">
-        <v>1.53</v>
-      </c>
-      <c r="Q29">
-        <v>2.38</v>
-      </c>
-      <c r="R29">
-        <v>2.2</v>
-      </c>
-      <c r="S29">
-        <v>1.62</v>
-      </c>
-      <c r="T29">
-        <v>1.25</v>
-      </c>
-      <c r="U29">
-        <v>1.3</v>
-      </c>
-      <c r="V29">
-        <v>1.55</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29">
-        <v>1.81</v>
-      </c>
-      <c r="Z29">
-        <v>1.27</v>
-      </c>
-      <c r="AA29">
-        <v>3.08</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
       <c r="AG29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2">
         <v>45094</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G30">
-        <v>2.2</v>
+        <v>1.71</v>
       </c>
       <c r="H30">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I30">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="J30">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K30">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L30">
+        <v>1.29</v>
+      </c>
+      <c r="M30">
+        <v>3.25</v>
+      </c>
+      <c r="N30">
+        <v>1.96</v>
+      </c>
+      <c r="O30">
+        <v>1.84</v>
+      </c>
+      <c r="P30">
+        <v>1.4</v>
+      </c>
+      <c r="Q30">
+        <v>2.75</v>
+      </c>
+      <c r="R30">
+        <v>1.95</v>
+      </c>
+      <c r="S30">
+        <v>1.81</v>
+      </c>
+      <c r="T30">
+        <v>1.14</v>
+      </c>
+      <c r="U30">
         <v>1.25</v>
       </c>
-      <c r="M30">
-        <v>3.6</v>
-      </c>
-      <c r="N30">
-        <v>1.84</v>
-      </c>
-      <c r="O30">
-        <v>2.02</v>
-      </c>
-      <c r="P30">
-        <v>1.35</v>
-      </c>
-      <c r="Q30">
-        <v>3.05</v>
-      </c>
-      <c r="R30">
-        <v>1.66</v>
-      </c>
-      <c r="S30">
-        <v>2.14</v>
-      </c>
-      <c r="T30">
-        <v>1.36</v>
-      </c>
-      <c r="U30">
-        <v>1.29</v>
-      </c>
       <c r="V30">
-        <v>1.68</v>
+        <v>2.1</v>
       </c>
       <c r="W30">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="X30">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="Z30">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AA30">
-        <v>3.03</v>
+        <v>3.2</v>
       </c>
       <c r="AB30">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="AC30">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AD30">
-        <v>1.95</v>
+        <v>2.82</v>
       </c>
       <c r="AE30">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AF30">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AG30">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="AH30">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="AI30">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2">
         <v>45094</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G31">
-        <v>2.62</v>
+        <v>2.27</v>
       </c>
       <c r="H31">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I31">
-        <v>2.42</v>
+        <v>2.82</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N31">
-        <v>2.01</v>
+        <v>2.35</v>
       </c>
       <c r="O31">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="R31">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="S31">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W31">
         <v>0.67</v>
@@ -4309,727 +4297,727 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>45094</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G32">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="H32">
+        <v>3.45</v>
+      </c>
+      <c r="I32">
+        <v>3.55</v>
+      </c>
+      <c r="J32">
+        <v>1.02</v>
+      </c>
+      <c r="K32">
+        <v>10.5</v>
+      </c>
+      <c r="L32">
+        <v>1.26</v>
+      </c>
+      <c r="M32">
         <v>3.5</v>
-      </c>
-      <c r="I32">
-        <v>5</v>
-      </c>
-      <c r="J32">
-        <v>1.03</v>
-      </c>
-      <c r="K32">
-        <v>10</v>
-      </c>
-      <c r="L32">
-        <v>1.29</v>
-      </c>
-      <c r="M32">
-        <v>3.25</v>
       </c>
       <c r="N32">
         <v>1.98</v>
       </c>
       <c r="O32">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="P32">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q32">
-        <v>2.75</v>
+        <v>2.98</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="S32">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="T32">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="U32">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V32">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="W32">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="Y32">
-        <v>1.83</v>
+        <v>1.28</v>
       </c>
       <c r="Z32">
-        <v>1.37</v>
+        <v>0.83</v>
       </c>
       <c r="AA32">
-        <v>3.2</v>
+        <v>2.11</v>
       </c>
       <c r="AB32">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AC32">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD32">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AE32">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="AF32">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="AG32">
-        <v>1.74</v>
+        <v>2.25</v>
       </c>
       <c r="AH32">
-        <v>2.15</v>
+        <v>3.08</v>
       </c>
       <c r="AI32">
-        <v>2.63</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
         <v>45094</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G33">
-        <v>2.5</v>
+        <v>1.53</v>
       </c>
       <c r="H33">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="I33">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="J33">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K33">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="L33">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="M33">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="N33">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="O33">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="P33">
+        <v>1.44</v>
+      </c>
+      <c r="Q33">
+        <v>2.59</v>
+      </c>
+      <c r="R33">
+        <v>2.05</v>
+      </c>
+      <c r="S33">
+        <v>1.73</v>
+      </c>
+      <c r="T33">
+        <v>1.1</v>
+      </c>
+      <c r="U33">
+        <v>1.23</v>
+      </c>
+      <c r="V33">
+        <v>2.28</v>
+      </c>
+      <c r="W33">
+        <v>1.33</v>
+      </c>
+      <c r="X33">
+        <v>0.75</v>
+      </c>
+      <c r="Y33">
         <v>1.39</v>
       </c>
-      <c r="Q33">
-        <v>2.98</v>
-      </c>
-      <c r="R33">
-        <v>1.77</v>
-      </c>
-      <c r="S33">
-        <v>1.97</v>
-      </c>
-      <c r="T33">
-        <v>1.26</v>
-      </c>
-      <c r="U33">
-        <v>1.27</v>
-      </c>
-      <c r="V33">
-        <v>1.88</v>
-      </c>
-      <c r="W33">
-        <v>1.57</v>
-      </c>
-      <c r="X33">
-        <v>0.14</v>
-      </c>
-      <c r="Y33">
-        <v>1.28</v>
-      </c>
       <c r="Z33">
-        <v>0.83</v>
+        <v>1.7</v>
       </c>
       <c r="AA33">
-        <v>2.11</v>
+        <v>3.09</v>
       </c>
       <c r="AB33">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AH33">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AI33">
-        <v>4.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2">
         <v>45094</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G34">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="H34">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I34">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="J34">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="K34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L34">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="M34">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N34">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="O34">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="P34">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="Q34">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="S34">
-        <v>1.68</v>
+        <v>2.13</v>
       </c>
       <c r="T34">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="U34">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="V34">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="W34">
-        <v>1.56</v>
+        <v>2.33</v>
       </c>
       <c r="X34">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="Y34">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="Z34">
-        <v>1.03</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
-        <v>2.74</v>
+        <v>2.57</v>
       </c>
       <c r="AB34">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AE34">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="AH34">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2">
         <v>45094</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G35">
+        <v>2.1</v>
+      </c>
+      <c r="H35">
+        <v>3.25</v>
+      </c>
+      <c r="I35">
+        <v>3.6</v>
+      </c>
+      <c r="J35">
+        <v>1.09</v>
+      </c>
+      <c r="K35">
+        <v>8</v>
+      </c>
+      <c r="L35">
+        <v>1.47</v>
+      </c>
+      <c r="M35">
+        <v>2.7</v>
+      </c>
+      <c r="N35">
         <v>2.4</v>
       </c>
-      <c r="H35">
-        <v>3.15</v>
-      </c>
-      <c r="I35">
-        <v>2.6</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>2.14</v>
-      </c>
       <c r="O35">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>1.68</v>
+      </c>
+      <c r="T35">
+        <v>1.27</v>
+      </c>
+      <c r="U35">
+        <v>1.34</v>
+      </c>
+      <c r="V35">
+        <v>1.68</v>
+      </c>
+      <c r="W35">
+        <v>1.56</v>
+      </c>
+      <c r="X35">
+        <v>0.63</v>
+      </c>
+      <c r="Y35">
         <v>1.71</v>
       </c>
-      <c r="S35">
-        <v>2.08</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>2.33</v>
-      </c>
-      <c r="X35">
-        <v>0.25</v>
-      </c>
-      <c r="Y35">
-        <v>1.77</v>
-      </c>
       <c r="Z35">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="AA35">
-        <v>2.57</v>
+        <v>2.74</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AG35">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
         <v>45094</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36">
+        <v>1.46</v>
+      </c>
+      <c r="H36">
+        <v>4.05</v>
+      </c>
+      <c r="I36">
+        <v>5.3</v>
+      </c>
+      <c r="J36">
+        <v>1.05</v>
+      </c>
+      <c r="K36">
         <v>9</v>
       </c>
-      <c r="E36" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36">
-        <v>1.53</v>
-      </c>
-      <c r="H36">
-        <v>3.3</v>
-      </c>
-      <c r="I36">
-        <v>6.1</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
       <c r="L36">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N36">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O36">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="R36">
-        <v>2.17</v>
+        <v>1.96</v>
       </c>
       <c r="S36">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="W36">
-        <v>1.33</v>
+        <v>2.71</v>
       </c>
       <c r="X36">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="Y36">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AA36">
-        <v>3.09</v>
+        <v>1.8</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2">
         <v>45094</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G37">
-        <v>1.47</v>
+        <v>2.31</v>
       </c>
       <c r="H37">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I37">
-        <v>6</v>
+        <v>2.68</v>
       </c>
       <c r="J37">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K37">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="L37">
+        <v>1.35</v>
+      </c>
+      <c r="M37">
+        <v>2.78</v>
+      </c>
+      <c r="N37">
+        <v>2.1</v>
+      </c>
+      <c r="O37">
+        <v>1.62</v>
+      </c>
+      <c r="P37">
+        <v>1.44</v>
+      </c>
+      <c r="Q37">
+        <v>2.6</v>
+      </c>
+      <c r="R37">
+        <v>1.92</v>
+      </c>
+      <c r="S37">
+        <v>1.84</v>
+      </c>
+      <c r="T37">
+        <v>1.36</v>
+      </c>
+      <c r="U37">
         <v>1.29</v>
       </c>
-      <c r="M37">
-        <v>3.5</v>
-      </c>
-      <c r="N37">
-        <v>1.86</v>
-      </c>
-      <c r="O37">
-        <v>1.94</v>
-      </c>
-      <c r="P37">
-        <v>1.35</v>
-      </c>
-      <c r="Q37">
-        <v>3.05</v>
-      </c>
-      <c r="R37">
-        <v>1.96</v>
-      </c>
-      <c r="S37">
-        <v>1.8</v>
-      </c>
-      <c r="T37">
-        <v>1.08</v>
-      </c>
-      <c r="U37">
-        <v>1.18</v>
-      </c>
       <c r="V37">
-        <v>2.64</v>
+        <v>1.5</v>
       </c>
       <c r="W37">
-        <v>2.71</v>
+        <v>1.25</v>
       </c>
       <c r="X37">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="Z37">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AA37">
-        <v>1.8</v>
+        <v>3.12</v>
       </c>
       <c r="AB37">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AG37">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="AH37">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="AI37">
-        <v>2.84</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>45094</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G38">
-        <v>2.31</v>
+        <v>4.2</v>
       </c>
       <c r="H38">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I38">
-        <v>2.68</v>
+        <v>1.71</v>
       </c>
       <c r="J38">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K38">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="L38">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M38">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P38">
         <v>1.44</v>
       </c>
       <c r="Q38">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="R38">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="S38">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="T38">
-        <v>1.36</v>
+        <v>2.02</v>
       </c>
       <c r="U38">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V38">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="W38">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="X38">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="Y38">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="Z38">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AA38">
-        <v>3.12</v>
+        <v>2.83</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -5047,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH38">
         <v>0</v>
@@ -5058,34 +5046,34 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
         <v>45094</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G39">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I39">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="J39">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="K39">
         <v>6.5</v>
@@ -5094,177 +5082,177 @@
         <v>1.5</v>
       </c>
       <c r="M39">
+        <v>2.5</v>
+      </c>
+      <c r="N39">
+        <v>2.35</v>
+      </c>
+      <c r="O39">
+        <v>1.53</v>
+      </c>
+      <c r="P39">
+        <v>1.51</v>
+      </c>
+      <c r="Q39">
         <v>2.4</v>
       </c>
-      <c r="N39">
-        <v>2.69</v>
-      </c>
-      <c r="O39">
-        <v>1.41</v>
-      </c>
-      <c r="P39">
-        <v>1.55</v>
-      </c>
-      <c r="Q39">
+      <c r="R39">
+        <v>2.1</v>
+      </c>
+      <c r="S39">
+        <v>1.65</v>
+      </c>
+      <c r="T39">
+        <v>1.16</v>
+      </c>
+      <c r="U39">
+        <v>1.25</v>
+      </c>
+      <c r="V39">
+        <v>1.8</v>
+      </c>
+      <c r="W39">
+        <v>1.75</v>
+      </c>
+      <c r="X39">
+        <v>0.33</v>
+      </c>
+      <c r="Y39">
+        <v>1.48</v>
+      </c>
+      <c r="Z39">
+        <v>1.12</v>
+      </c>
+      <c r="AA39">
+        <v>2.6</v>
+      </c>
+      <c r="AB39">
+        <v>1.44</v>
+      </c>
+      <c r="AC39">
+        <v>9</v>
+      </c>
+      <c r="AD39">
+        <v>3.2</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>1.47</v>
+      </c>
+      <c r="AH39">
+        <v>1.79</v>
+      </c>
+      <c r="AI39">
         <v>2.25</v>
-      </c>
-      <c r="R39">
-        <v>2.15</v>
-      </c>
-      <c r="S39">
-        <v>1.62</v>
-      </c>
-      <c r="T39">
-        <v>1.31</v>
-      </c>
-      <c r="U39">
-        <v>1.32</v>
-      </c>
-      <c r="V39">
-        <v>1.65</v>
-      </c>
-      <c r="W39">
-        <v>1.67</v>
-      </c>
-      <c r="X39">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y39">
-        <v>1.13</v>
-      </c>
-      <c r="Z39">
-        <v>1.11</v>
-      </c>
-      <c r="AA39">
-        <v>2.24</v>
-      </c>
-      <c r="AB39">
-        <v>1.9</v>
-      </c>
-      <c r="AC39">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD39">
-        <v>2.25</v>
-      </c>
-      <c r="AE39">
-        <v>1.52</v>
-      </c>
-      <c r="AF39">
-        <v>1.88</v>
-      </c>
-      <c r="AG39">
-        <v>2.36</v>
-      </c>
-      <c r="AH39">
-        <v>3.28</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2">
         <v>45094</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F40" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G40">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="H40">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="I40">
-        <v>3.9</v>
+        <v>2.82</v>
       </c>
       <c r="J40">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K40">
         <v>6.5</v>
       </c>
       <c r="L40">
+        <v>1.53</v>
+      </c>
+      <c r="M40">
+        <v>2.35</v>
+      </c>
+      <c r="N40">
+        <v>2.4</v>
+      </c>
+      <c r="O40">
         <v>1.44</v>
       </c>
-      <c r="M40">
-        <v>2.62</v>
-      </c>
-      <c r="N40">
-        <v>2.3</v>
-      </c>
-      <c r="O40">
-        <v>1.48</v>
-      </c>
       <c r="P40">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="Q40">
+        <v>2.25</v>
+      </c>
+      <c r="R40">
+        <v>2.05</v>
+      </c>
+      <c r="S40">
+        <v>1.66</v>
+      </c>
+      <c r="T40">
+        <v>1.46</v>
+      </c>
+      <c r="U40">
+        <v>1.36</v>
+      </c>
+      <c r="V40">
+        <v>1.41</v>
+      </c>
+      <c r="W40">
+        <v>1.67</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>1.16</v>
+      </c>
+      <c r="Z40">
+        <v>1.28</v>
+      </c>
+      <c r="AA40">
+        <v>2.44</v>
+      </c>
+      <c r="AB40">
+        <v>1.73</v>
+      </c>
+      <c r="AC40">
+        <v>8.4</v>
+      </c>
+      <c r="AD40">
+        <v>2.53</v>
+      </c>
+      <c r="AE40">
+        <v>1.53</v>
+      </c>
+      <c r="AF40">
+        <v>1.91</v>
+      </c>
+      <c r="AG40">
         <v>2.4</v>
       </c>
-      <c r="R40">
-        <v>2.1</v>
-      </c>
-      <c r="S40">
-        <v>1.65</v>
-      </c>
-      <c r="T40">
-        <v>1.16</v>
-      </c>
-      <c r="U40">
-        <v>1.25</v>
-      </c>
-      <c r="V40">
-        <v>1.8</v>
-      </c>
-      <c r="W40">
-        <v>1.75</v>
-      </c>
-      <c r="X40">
-        <v>0.33</v>
-      </c>
-      <c r="Y40">
-        <v>1.48</v>
-      </c>
-      <c r="Z40">
-        <v>1.12</v>
-      </c>
-      <c r="AA40">
-        <v>2.6</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
       <c r="AH40">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AI40">
         <v>0</v>
@@ -5272,55 +5260,55 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>45094</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D41">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="H41">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I41">
-        <v>1.57</v>
+        <v>2.8</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O41">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="R41">
         <v>2.02</v>
@@ -5329,28 +5317,28 @@
         <v>1.75</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W41">
         <v>2.5</v>
       </c>
       <c r="X41">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="Y41">
-        <v>1.32</v>
+        <v>1.95</v>
       </c>
       <c r="Z41">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AA41">
-        <v>2.83</v>
+        <v>3.49</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -5368,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH41">
         <v>0</v>
@@ -5379,106 +5367,106 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>45094</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F42" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G42">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H42">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="I42">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N42">
-        <v>2.28</v>
+        <v>2.41</v>
       </c>
       <c r="O42">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R42">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S42">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W42">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="X42">
-        <v>1.33</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y42">
-        <v>1.95</v>
+        <v>1.13</v>
       </c>
       <c r="Z42">
-        <v>1.54</v>
+        <v>1.11</v>
       </c>
       <c r="AA42">
-        <v>3.49</v>
+        <v>2.24</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AI42">
         <v>0</v>
@@ -5486,138 +5474,138 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2">
         <v>45094</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G43">
-        <v>2.8</v>
+        <v>1.48</v>
       </c>
       <c r="H43">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="I43">
+        <v>5.8</v>
+      </c>
+      <c r="J43">
+        <v>1.05</v>
+      </c>
+      <c r="K43">
+        <v>10.75</v>
+      </c>
+      <c r="L43">
+        <v>1.29</v>
+      </c>
+      <c r="M43">
+        <v>3.3</v>
+      </c>
+      <c r="N43">
+        <v>2.04</v>
+      </c>
+      <c r="O43">
+        <v>1.84</v>
+      </c>
+      <c r="P43">
+        <v>1.4</v>
+      </c>
+      <c r="Q43">
+        <v>2.75</v>
+      </c>
+      <c r="R43">
+        <v>1.91</v>
+      </c>
+      <c r="S43">
+        <v>1.8</v>
+      </c>
+      <c r="T43">
+        <v>1.1</v>
+      </c>
+      <c r="U43">
+        <v>1.22</v>
+      </c>
+      <c r="V43">
+        <v>2.1</v>
+      </c>
+      <c r="W43">
         <v>2.5</v>
       </c>
-      <c r="J43">
-        <v>1.07</v>
-      </c>
-      <c r="K43">
-        <v>6.5</v>
-      </c>
-      <c r="L43">
-        <v>1.53</v>
-      </c>
-      <c r="M43">
-        <v>2.35</v>
-      </c>
-      <c r="N43">
-        <v>2.73</v>
-      </c>
-      <c r="O43">
-        <v>1.4</v>
-      </c>
-      <c r="P43">
-        <v>1.55</v>
-      </c>
-      <c r="Q43">
-        <v>2.25</v>
-      </c>
-      <c r="R43">
-        <v>2.05</v>
-      </c>
-      <c r="S43">
-        <v>1.66</v>
-      </c>
-      <c r="T43">
-        <v>1.46</v>
-      </c>
-      <c r="U43">
-        <v>1.36</v>
-      </c>
-      <c r="V43">
-        <v>1.41</v>
-      </c>
-      <c r="W43">
+      <c r="X43">
+        <v>0.92</v>
+      </c>
+      <c r="Y43">
         <v>1.67</v>
       </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43">
-        <v>1.16</v>
-      </c>
       <c r="Z43">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AA43">
-        <v>2.44</v>
+        <v>2.99</v>
       </c>
       <c r="AB43">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AC43">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD43">
-        <v>2.53</v>
+        <v>2.89</v>
       </c>
       <c r="AE43">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AF43">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AG43">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="AH43">
-        <v>3.34</v>
+        <v>2.98</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2">
         <v>45094</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D44">
         <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G44">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="H44">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I44">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J44">
         <v>1.07</v>
@@ -5706,150 +5694,150 @@
         <v>45094</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F45" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G45">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="H45">
-        <v>3.7</v>
+        <v>3.78</v>
       </c>
       <c r="I45">
-        <v>4.75</v>
+        <v>4.55</v>
       </c>
       <c r="J45">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="O45">
-        <v>1.78</v>
+        <v>2.03</v>
       </c>
       <c r="P45">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="X45">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="Y45">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="Z45">
         <v>1.32</v>
       </c>
       <c r="AA45">
-        <v>2.99</v>
+        <v>2.68</v>
       </c>
       <c r="AB45">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD45">
-        <v>2.89</v>
+        <v>0</v>
       </c>
       <c r="AE45">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AF45">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AG45">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AH45">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="AI45">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2">
         <v>45094</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G46">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H46">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I46">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="J46">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K46">
-        <v>9.9</v>
+        <v>13</v>
       </c>
       <c r="L46">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M46">
-        <v>3.56</v>
+        <v>3.6</v>
       </c>
       <c r="N46">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="O46">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="P46">
         <v>1.36</v>
@@ -5858,301 +5846,301 @@
         <v>3</v>
       </c>
       <c r="R46">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S46">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T46">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="U46">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="V46">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="W46">
-        <v>0.71</v>
+        <v>1.83</v>
       </c>
       <c r="X46">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="Y46">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="Z46">
-        <v>1.29</v>
+        <v>1.64</v>
       </c>
       <c r="AA46">
-        <v>2.73</v>
+        <v>3.02</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AG46">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2">
         <v>45094</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G47">
-        <v>1.62</v>
+        <v>2.46</v>
       </c>
       <c r="H47">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="I47">
-        <v>4.75</v>
+        <v>2.57</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="N47">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="O47">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W47">
-        <v>1.25</v>
+        <v>0.71</v>
       </c>
       <c r="X47">
-        <v>0.5</v>
+        <v>2.17</v>
       </c>
       <c r="Y47">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Z47">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AA47">
-        <v>2.68</v>
+        <v>2.73</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI47">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2">
         <v>45094</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G48">
-        <v>3.3</v>
+        <v>1.66</v>
       </c>
       <c r="H48">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="I48">
-        <v>1.95</v>
+        <v>4.55</v>
       </c>
       <c r="J48">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K48">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L48">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M48">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N48">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="O48">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="P48">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q48">
         <v>3</v>
       </c>
       <c r="R48">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S48">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T48">
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="U48">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="V48">
-        <v>1.28</v>
+        <v>2.15</v>
       </c>
       <c r="W48">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="X48">
-        <v>1.86</v>
+        <v>1.38</v>
       </c>
       <c r="Y48">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="Z48">
+        <v>1.34</v>
+      </c>
+      <c r="AA48">
+        <v>2.87</v>
+      </c>
+      <c r="AB48">
         <v>1.64</v>
       </c>
-      <c r="AA48">
-        <v>3.02</v>
-      </c>
-      <c r="AB48">
-        <v>2.52</v>
-      </c>
       <c r="AC48">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD48">
-        <v>1.68</v>
+        <v>2.77</v>
       </c>
       <c r="AE48">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AF48">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AG48">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="AH48">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="AI48">
-        <v>3.08</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
         <v>45094</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G49">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="H49">
+        <v>3.45</v>
+      </c>
+      <c r="I49">
         <v>3.6</v>
-      </c>
-      <c r="I49">
-        <v>3.8</v>
       </c>
       <c r="J49">
         <v>1.01</v>
@@ -6167,10 +6155,10 @@
         <v>3.48</v>
       </c>
       <c r="N49">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="O49">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="P49">
         <v>1.35</v>
@@ -6209,135 +6197,135 @@
         <v>2.66</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI49">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="50" spans="1:35">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="2">
         <v>45094</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F50" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G50">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="H50">
+        <v>3.6</v>
+      </c>
+      <c r="I50">
         <v>3.9</v>
-      </c>
-      <c r="I50">
-        <v>4.75</v>
       </c>
       <c r="J50">
         <v>1.04</v>
       </c>
       <c r="K50">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L50">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M50">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="N50">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="O50">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="P50">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="Q50">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="R50">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="S50">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T50">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="U50">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="V50">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="W50">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="X50">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="Y50">
         <v>1.53</v>
       </c>
       <c r="Z50">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="AA50">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="AB50">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="AC50">
         <v>8</v>
       </c>
       <c r="AD50">
-        <v>2.77</v>
+        <v>2.33</v>
       </c>
       <c r="AE50">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AF50">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AG50">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AH50">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="AI50">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -6348,123 +6336,123 @@
         <v>45094</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F51" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G51">
+        <v>1.98</v>
+      </c>
+      <c r="H51">
+        <v>3.3</v>
+      </c>
+      <c r="I51">
+        <v>3.26</v>
+      </c>
+      <c r="J51">
+        <v>1.08</v>
+      </c>
+      <c r="K51">
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <v>1.36</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>2.01</v>
+      </c>
+      <c r="O51">
+        <v>1.68</v>
+      </c>
+      <c r="P51">
+        <v>1.44</v>
+      </c>
+      <c r="Q51">
+        <v>2.59</v>
+      </c>
+      <c r="R51">
+        <v>1.82</v>
+      </c>
+      <c r="S51">
+        <v>1.94</v>
+      </c>
+      <c r="T51">
+        <v>1.44</v>
+      </c>
+      <c r="U51">
+        <v>1.33</v>
+      </c>
+      <c r="V51">
+        <v>1.44</v>
+      </c>
+      <c r="W51">
+        <v>2.14</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
         <v>1.75</v>
       </c>
-      <c r="H51">
-        <v>3.8</v>
-      </c>
-      <c r="I51">
-        <v>4.1</v>
-      </c>
-      <c r="J51">
-        <v>1.04</v>
-      </c>
-      <c r="K51">
-        <v>10.5</v>
-      </c>
-      <c r="L51">
-        <v>1.24</v>
-      </c>
-      <c r="M51">
-        <v>3.7</v>
-      </c>
-      <c r="N51">
-        <v>1.75</v>
-      </c>
-      <c r="O51">
-        <v>2.01</v>
-      </c>
-      <c r="P51">
-        <v>1.41</v>
-      </c>
-      <c r="Q51">
-        <v>3.03</v>
-      </c>
-      <c r="R51">
-        <v>1.68</v>
-      </c>
-      <c r="S51">
-        <v>2</v>
-      </c>
-      <c r="T51">
-        <v>1.24</v>
-      </c>
-      <c r="U51">
-        <v>1.26</v>
-      </c>
-      <c r="V51">
-        <v>1.93</v>
-      </c>
-      <c r="W51">
-        <v>2.25</v>
-      </c>
-      <c r="X51">
-        <v>2</v>
-      </c>
-      <c r="Y51">
-        <v>1.53</v>
-      </c>
       <c r="Z51">
-        <v>1.22</v>
+        <v>1.59</v>
       </c>
       <c r="AA51">
-        <v>2.75</v>
+        <v>3.34</v>
       </c>
       <c r="AB51">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD51">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AE51">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AF51">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AG51">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AH51">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AI51">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="2">
         <v>45094</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D52">
         <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F52" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G52">
         <v>1.45</v>
@@ -6556,138 +6544,138 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2">
         <v>45094</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F53" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G53">
-        <v>2.55</v>
+        <v>1.64</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>4.05</v>
       </c>
       <c r="I53">
-        <v>2.55</v>
+        <v>4.8</v>
       </c>
       <c r="J53">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K53">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L53">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N53">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="O53">
-        <v>1.61</v>
+        <v>2.1</v>
       </c>
       <c r="P53">
+        <v>1.33</v>
+      </c>
+      <c r="Q53">
+        <v>3.16</v>
+      </c>
+      <c r="R53">
+        <v>1.8</v>
+      </c>
+      <c r="S53">
+        <v>1.98</v>
+      </c>
+      <c r="T53">
+        <v>1.18</v>
+      </c>
+      <c r="U53">
+        <v>1.18</v>
+      </c>
+      <c r="V53">
+        <v>2.25</v>
+      </c>
+      <c r="W53">
+        <v>2.22</v>
+      </c>
+      <c r="X53">
+        <v>1.43</v>
+      </c>
+      <c r="Y53">
+        <v>1.66</v>
+      </c>
+      <c r="Z53">
         <v>1.44</v>
       </c>
-      <c r="Q53">
-        <v>2.59</v>
-      </c>
-      <c r="R53">
-        <v>1.82</v>
-      </c>
-      <c r="S53">
-        <v>1.94</v>
-      </c>
-      <c r="T53">
+      <c r="AA53">
+        <v>3.1</v>
+      </c>
+      <c r="AB53">
+        <v>1.51</v>
+      </c>
+      <c r="AC53">
+        <v>8.5</v>
+      </c>
+      <c r="AD53">
+        <v>3.16</v>
+      </c>
+      <c r="AE53">
+        <v>1.23</v>
+      </c>
+      <c r="AF53">
         <v>1.44</v>
       </c>
-      <c r="U53">
-        <v>1.33</v>
-      </c>
-      <c r="V53">
-        <v>1.44</v>
-      </c>
-      <c r="W53">
-        <v>2.14</v>
-      </c>
-      <c r="X53">
-        <v>1</v>
-      </c>
-      <c r="Y53">
-        <v>1.75</v>
-      </c>
-      <c r="Z53">
-        <v>1.59</v>
-      </c>
-      <c r="AA53">
-        <v>3.34</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
       <c r="AG53">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="2">
         <v>45094</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F54" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G54">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="H54">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I54">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J54">
         <v>1.03</v>
@@ -6770,263 +6758,263 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B55" s="2">
         <v>45094</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F55" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G55">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>4.69</v>
       </c>
       <c r="J55">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K55">
-        <v>11</v>
+        <v>9.9</v>
       </c>
       <c r="L55">
         <v>1.23</v>
       </c>
       <c r="M55">
-        <v>3.8</v>
+        <v>3.56</v>
       </c>
       <c r="N55">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="O55">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="P55">
         <v>1.33</v>
       </c>
       <c r="Q55">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S55">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="U55">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="V55">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="W55">
-        <v>2.22</v>
+        <v>1.33</v>
       </c>
       <c r="X55">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="Y55">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="Z55">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AA55">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="AB55">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="AC55">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD55">
-        <v>3.16</v>
+        <v>5.06</v>
       </c>
       <c r="AE55">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AF55">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="AG55">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="AH55">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="AI55">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B56" s="2">
         <v>45094</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F56" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G56">
-        <v>1.6</v>
+        <v>2.23</v>
       </c>
       <c r="H56">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="I56">
-        <v>4.75</v>
+        <v>2.84</v>
       </c>
       <c r="J56">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K56">
-        <v>9.9</v>
+        <v>11.5</v>
       </c>
       <c r="L56">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M56">
-        <v>3.56</v>
+        <v>3.74</v>
       </c>
       <c r="N56">
+        <v>2.03</v>
+      </c>
+      <c r="O56">
+        <v>1.85</v>
+      </c>
+      <c r="P56">
+        <v>1.4</v>
+      </c>
+      <c r="Q56">
+        <v>2.75</v>
+      </c>
+      <c r="R56">
         <v>1.73</v>
       </c>
-      <c r="O56">
-        <v>1.91</v>
-      </c>
-      <c r="P56">
-        <v>1.33</v>
-      </c>
-      <c r="Q56">
-        <v>3.25</v>
-      </c>
-      <c r="R56">
-        <v>1.78</v>
-      </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="U56">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="V56">
-        <v>2.15</v>
+        <v>1.47</v>
       </c>
       <c r="W56">
-        <v>1.33</v>
+        <v>2.25</v>
       </c>
       <c r="X56">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="Y56">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Z56">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AA56">
-        <v>2.97</v>
+        <v>3.04</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AH56">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AI56">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="57" spans="1:35">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" s="2">
         <v>45094</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D57">
         <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F57" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G57">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="H57">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="J57">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K57">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="L57">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M57">
-        <v>3.74</v>
+        <v>3.2</v>
       </c>
       <c r="N57">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="O57">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="P57">
         <v>1.4</v>
@@ -7035,43 +7023,43 @@
         <v>2.75</v>
       </c>
       <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
         <v>1.73</v>
       </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
       <c r="T57">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="U57">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V57">
+        <v>2.1</v>
+      </c>
+      <c r="W57">
+        <v>1.92</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>1.51</v>
+      </c>
+      <c r="Z57">
+        <v>1.39</v>
+      </c>
+      <c r="AA57">
+        <v>2.9</v>
+      </c>
+      <c r="AB57">
         <v>1.47</v>
       </c>
-      <c r="W57">
-        <v>2.25</v>
-      </c>
-      <c r="X57">
-        <v>0.67</v>
-      </c>
-      <c r="Y57">
-        <v>1.76</v>
-      </c>
-      <c r="Z57">
-        <v>1.28</v>
-      </c>
-      <c r="AA57">
-        <v>3.04</v>
-      </c>
-      <c r="AB57">
-        <v>1.29</v>
-      </c>
       <c r="AC57">
-        <v>10.75</v>
+        <v>9.6</v>
       </c>
       <c r="AD57">
-        <v>4.45</v>
+        <v>3.24</v>
       </c>
       <c r="AE57">
         <v>1.26</v>
@@ -7080,42 +7068,42 @@
         <v>1.5</v>
       </c>
       <c r="AG57">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="AH57">
-        <v>2.39</v>
+        <v>2.41</v>
       </c>
       <c r="AI57">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="58" spans="1:35">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" s="2">
         <v>45094</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G58">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="H58">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="J58">
         <v>1.01</v>
@@ -7130,99 +7118,99 @@
         <v>3.48</v>
       </c>
       <c r="N58">
-        <v>1.73</v>
+        <v>1.97</v>
       </c>
       <c r="O58">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="P58">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q58">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R58">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="U58">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="V58">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="X58">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="Y58">
-        <v>1.56</v>
+        <v>1.21</v>
       </c>
       <c r="Z58">
-        <v>1.42</v>
+        <v>1.14</v>
       </c>
       <c r="AA58">
-        <v>2.98</v>
+        <v>2.35</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AC58">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AE58">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG58">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AH58">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AI58">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:35">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="2">
         <v>45094</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F59" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G59">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="H59">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I59">
-        <v>3.3</v>
+        <v>2.76</v>
       </c>
       <c r="J59">
         <v>1.01</v>
@@ -7237,10 +7225,10 @@
         <v>3.56</v>
       </c>
       <c r="N59">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="O59">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="P59">
         <v>1.36</v>
@@ -7279,28 +7267,28 @@
         <v>2.7</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF59">
         <v>1.95</v>
       </c>
       <c r="AG59">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AI59">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="60" spans="1:35">
@@ -7311,132 +7299,132 @@
         <v>45094</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D60">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F60" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G60">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="H60">
-        <v>3.4</v>
+        <v>3.86</v>
       </c>
       <c r="I60">
-        <v>4.45</v>
+        <v>5.02</v>
       </c>
       <c r="J60">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="K60">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L60">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="M60">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="N60">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="O60">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="P60">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q60">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S60">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="U60">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="V60">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="W60">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="Y60">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="Z60">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AA60">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="AB60">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AC60">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD60">
-        <v>3.24</v>
+        <v>3.75</v>
       </c>
       <c r="AE60">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="AF60">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AG60">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="AH60">
-        <v>2.41</v>
+        <v>2.02</v>
       </c>
       <c r="AI60">
-        <v>3.28</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="61" spans="1:35">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61" s="2">
         <v>45094</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F61" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G61">
-        <v>1.75</v>
+        <v>2.07</v>
       </c>
       <c r="H61">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>2.93</v>
       </c>
       <c r="J61">
         <v>1.01</v>
@@ -7451,10 +7439,10 @@
         <v>3.48</v>
       </c>
       <c r="N61">
+        <v>1.83</v>
+      </c>
+      <c r="O61">
         <v>1.97</v>
-      </c>
-      <c r="O61">
-        <v>1.83</v>
       </c>
       <c r="P61">
         <v>1.36</v>
@@ -7472,96 +7460,96 @@
         <v>1.22</v>
       </c>
       <c r="U61">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V61">
         <v>1.85</v>
       </c>
       <c r="W61">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="X61">
         <v>1.4</v>
       </c>
       <c r="Y61">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="Z61">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AA61">
-        <v>2.35</v>
+        <v>2.87</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF61">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG61">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AH61">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AI61">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="62" spans="1:35">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B62" s="2">
         <v>45094</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F62" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G62">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="H62">
-        <v>3.6</v>
+        <v>3.46</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>3.18</v>
       </c>
       <c r="J62">
         <v>1.01</v>
       </c>
       <c r="K62">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L62">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M62">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="N62">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O62">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="P62">
         <v>1.36</v>
@@ -7570,105 +7558,105 @@
         <v>3</v>
       </c>
       <c r="R62">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="S62">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="T62">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="U62">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="W62">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="X62">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Y62">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="Z62">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AA62">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD62">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AE62">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF62">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG62">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AH62">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AI62">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="63" spans="1:35">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B63" s="2">
         <v>45094</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F63" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G63">
         <v>2</v>
       </c>
       <c r="H63">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I63">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J63">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K63">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="L63">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M63">
-        <v>3.42</v>
+        <v>3.7</v>
       </c>
       <c r="N63">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="O63">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="P63">
         <v>1.36</v>
@@ -7677,87 +7665,87 @@
         <v>3</v>
       </c>
       <c r="R63">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="S63">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="T63">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U63">
         <v>1.25</v>
       </c>
       <c r="V63">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="W63">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="X63">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="Y63">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="Z63">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AA63">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AC63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>3.71</v>
       </c>
       <c r="AE63">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF63">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG63">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH63">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI63">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:35">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" s="2">
         <v>45094</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F64" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G64">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="H64">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I64">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="J64">
         <v>1.01</v>
@@ -7772,10 +7760,10 @@
         <v>3.48</v>
       </c>
       <c r="N64">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="O64">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P64">
         <v>1.36</v>
@@ -7814,135 +7802,28 @@
         <v>2.75</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AI64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35">
-      <c r="A65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="2">
-        <v>45094</v>
-      </c>
-      <c r="C65" t="s">
-        <v>74</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>138</v>
-      </c>
-      <c r="F65" t="s">
-        <v>202</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>3.5</v>
-      </c>
-      <c r="I65">
-        <v>3.6</v>
-      </c>
-      <c r="J65">
-        <v>1.04</v>
-      </c>
-      <c r="K65">
-        <v>10.5</v>
-      </c>
-      <c r="L65">
-        <v>1.24</v>
-      </c>
-      <c r="M65">
-        <v>3.7</v>
-      </c>
-      <c r="N65">
-        <v>1.67</v>
-      </c>
-      <c r="O65">
-        <v>2.1</v>
-      </c>
-      <c r="P65">
-        <v>1.36</v>
-      </c>
-      <c r="Q65">
-        <v>3</v>
-      </c>
-      <c r="R65">
-        <v>1.7</v>
-      </c>
-      <c r="S65">
-        <v>2.05</v>
-      </c>
-      <c r="T65">
-        <v>1.29</v>
-      </c>
-      <c r="U65">
-        <v>1.25</v>
-      </c>
-      <c r="V65">
-        <v>1.75</v>
-      </c>
-      <c r="W65">
-        <v>2.5</v>
-      </c>
-      <c r="X65">
-        <v>0.67</v>
-      </c>
-      <c r="Y65">
-        <v>1.38</v>
-      </c>
-      <c r="Z65">
-        <v>1.14</v>
-      </c>
-      <c r="AA65">
-        <v>2.52</v>
-      </c>
-      <c r="AB65">
-        <v>1.37</v>
-      </c>
-      <c r="AC65">
-        <v>9</v>
-      </c>
-      <c r="AD65">
-        <v>3.71</v>
-      </c>
-      <c r="AE65">
-        <v>1.2</v>
-      </c>
-      <c r="AF65">
-        <v>1.4</v>
-      </c>
-      <c r="AG65">
-        <v>1.71</v>
-      </c>
-      <c r="AH65">
-        <v>2.2</v>
-      </c>
-      <c r="AI65">
-        <v>3</v>
+        <v>2.95</v>
       </c>
     </row>
   </sheetData>
